--- a/cardWdata.xlsx
+++ b/cardWdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1391">
   <si>
     <t>銀行</t>
   </si>
@@ -3272,2180 +3272,922 @@
     <t>1.國內25元=1哩，海外15元=1哩 2.購買華航機票加碼25%哩程</t>
   </si>
   <si>
-    <t>0                 三信銀行-VISA白金卡
-1              三信銀行-TeresaCard
-2             三信銀行-小小兵Bello回饋卡
-3                     三信銀行-簡單卡
-4             三信銀行-JCB一卡通聯名晶緻卡
-5                   三信銀行-白金商務卡
-6                   三信銀行-國際信用卡
-7                三信銀行-ANA晶緻聯名卡
-8                三信銀行-ANA極緻聯名卡
-9         三信銀行-Global Mall 聯名卡
-10                 三信銀行-iPlan卡
-11               三信銀行-LEXUS聯名卡
-12              三信銀行-LINE Pay卡
-13            三信銀行-MUJI無印良品聯名卡
-14       三信銀行-TAIPEI 101 夜光聯名卡
-15               三信銀行-Yahoo聯名卡
-16              三信銀行-大中華攜手飛聯名卡
-17             三信銀行-大葉高島屋百貨聯名卡
-18               三信銀行-中油VIP聯名卡
-19                三信銀行-中信兄弟聯名卡
-20                三信銀行-中信商旅鈦金卡
-21     三信銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              三信銀行-中華電信聯名白金卡
-23                  三信銀行-秀泰聯名卡
-24                  三信銀行-享想生活卡
-25              三信銀行-南紡購物中心聯名卡
-26                  三信銀行-紅利御璽卡
-27                三信銀行-現金回饋鈦金卡
-28              三信銀行-勤美天地聯名晶緻卡
-29                    三信銀行-鼎極卡
-                ...           
-276            三信銀行-北港朝天宮媽祖認同卡
-277               三信銀行-故宮之友認同卡
-278                 三信銀行-悠遊聯名卡
-279                 三信銀行-鈦金商旅卡
-280                 三信銀行-金采白金卡
-281               三信銀行-金鑽商旅白金卡
-282                 三信銀行-鈦金商旅卡
-283             三信銀行-Bankee信用卡
-284          三信銀行-C'est Moi我的卡
-285              三信銀行-eTag 聯名卡
-286       三信銀行-New Century MC卡
-287                 三信銀行-快樂信用卡
-288               三信銀行-華信航空聯名卡
-289                三信銀行-F1 加油卡
-290       三信銀行-Tiger City悠遊白金卡
-291                 三信銀行-大立無限卡
-292               三信銀行-全國加油聯名卡
-293               三信銀行-幸福御守御璽卡
-294                   三信銀行-紅利卡
-295                三信銀行-美華泰聯名卡
-296                 三信銀行-泰航聯名卡
-297                三信銀行-理財型白金卡
-298               三信銀行-凱撒飯店聯名卡
-299                 三信銀行-順發聯名卡
-300                 三信銀行-微風聯名卡
-301              三信銀行-農金一卡通聯名卡
-302               三信銀行-樂活悠遊御璽卡
-303              三信銀行-賴點一卡通御璽卡
-304                 三信銀行-聯邦旅遊卡
-305               三信銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 上海商銀-VISA白金卡
-1              上海商銀-TeresaCard
-2             上海商銀-小小兵Bello回饋卡
-3                     上海商銀-簡單卡
-4             上海商銀-JCB一卡通聯名晶緻卡
-5                   上海商銀-白金商務卡
-6                   上海商銀-國際信用卡
-7                上海商銀-ANA晶緻聯名卡
-8                上海商銀-ANA極緻聯名卡
-9         上海商銀-Global Mall 聯名卡
-10                 上海商銀-iPlan卡
-11               上海商銀-LEXUS聯名卡
-12              上海商銀-LINE Pay卡
-13            上海商銀-MUJI無印良品聯名卡
-14       上海商銀-TAIPEI 101 夜光聯名卡
-15               上海商銀-Yahoo聯名卡
-16              上海商銀-大中華攜手飛聯名卡
-17             上海商銀-大葉高島屋百貨聯名卡
-18               上海商銀-中油VIP聯名卡
-19                上海商銀-中信兄弟聯名卡
-20                上海商銀-中信商旅鈦金卡
-21     上海商銀-中國信託寰遊美國運通卡AMEX_金卡
-22              上海商銀-中華電信聯名白金卡
-23                  上海商銀-秀泰聯名卡
-24                  上海商銀-享想生活卡
-25              上海商銀-南紡購物中心聯名卡
-26                  上海商銀-紅利御璽卡
-27                上海商銀-現金回饋鈦金卡
-28              上海商銀-勤美天地聯名晶緻卡
-29                    上海商銀-鼎極卡
-                ...           
-276            上海商銀-北港朝天宮媽祖認同卡
-277               上海商銀-故宮之友認同卡
-278                 上海商銀-悠遊聯名卡
-279                 上海商銀-鈦金商旅卡
-280                 上海商銀-金采白金卡
-281               上海商銀-金鑽商旅白金卡
-282                 上海商銀-鈦金商旅卡
-283             上海商銀-Bankee信用卡
-284          上海商銀-C'est Moi我的卡
-285              上海商銀-eTag 聯名卡
-286       上海商銀-New Century MC卡
-287                 上海商銀-快樂信用卡
-288               上海商銀-華信航空聯名卡
-289                上海商銀-F1 加油卡
-290       上海商銀-Tiger City悠遊白金卡
-291                 上海商銀-大立無限卡
-292               上海商銀-全國加油聯名卡
-293               上海商銀-幸福御守御璽卡
-294                   上海商銀-紅利卡
-295                上海商銀-美華泰聯名卡
-296                 上海商銀-泰航聯名卡
-297                上海商銀-理財型白金卡
-298               上海商銀-凱撒飯店聯名卡
-299                 上海商銀-順發聯名卡
-300                 上海商銀-微風聯名卡
-301              上海商銀-農金一卡通聯名卡
-302               上海商銀-樂活悠遊御璽卡
-303              上海商銀-賴點一卡通御璽卡
-304                 上海商銀-聯邦旅遊卡
-305               上海商銀-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 土地銀行-VISA白金卡
-1              土地銀行-TeresaCard
-2             土地銀行-小小兵Bello回饋卡
-3                     土地銀行-簡單卡
-4             土地銀行-JCB一卡通聯名晶緻卡
-5                   土地銀行-白金商務卡
-6                   土地銀行-國際信用卡
-7                土地銀行-ANA晶緻聯名卡
-8                土地銀行-ANA極緻聯名卡
-9         土地銀行-Global Mall 聯名卡
-10                 土地銀行-iPlan卡
-11               土地銀行-LEXUS聯名卡
-12              土地銀行-LINE Pay卡
-13            土地銀行-MUJI無印良品聯名卡
-14       土地銀行-TAIPEI 101 夜光聯名卡
-15               土地銀行-Yahoo聯名卡
-16              土地銀行-大中華攜手飛聯名卡
-17             土地銀行-大葉高島屋百貨聯名卡
-18               土地銀行-中油VIP聯名卡
-19                土地銀行-中信兄弟聯名卡
-20                土地銀行-中信商旅鈦金卡
-21     土地銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              土地銀行-中華電信聯名白金卡
-23                  土地銀行-秀泰聯名卡
-24                  土地銀行-享想生活卡
-25              土地銀行-南紡購物中心聯名卡
-26                  土地銀行-紅利御璽卡
-27                土地銀行-現金回饋鈦金卡
-28              土地銀行-勤美天地聯名晶緻卡
-29                    土地銀行-鼎極卡
-                ...           
-276            土地銀行-北港朝天宮媽祖認同卡
-277               土地銀行-故宮之友認同卡
-278                 土地銀行-悠遊聯名卡
-279                 土地銀行-鈦金商旅卡
-280                 土地銀行-金采白金卡
-281               土地銀行-金鑽商旅白金卡
-282                 土地銀行-鈦金商旅卡
-283             土地銀行-Bankee信用卡
-284          土地銀行-C'est Moi我的卡
-285              土地銀行-eTag 聯名卡
-286       土地銀行-New Century MC卡
-287                 土地銀行-快樂信用卡
-288               土地銀行-華信航空聯名卡
-289                土地銀行-F1 加油卡
-290       土地銀行-Tiger City悠遊白金卡
-291                 土地銀行-大立無限卡
-292               土地銀行-全國加油聯名卡
-293               土地銀行-幸福御守御璽卡
-294                   土地銀行-紅利卡
-295                土地銀行-美華泰聯名卡
-296                 土地銀行-泰航聯名卡
-297                土地銀行-理財型白金卡
-298               土地銀行-凱撒飯店聯名卡
-299                 土地銀行-順發聯名卡
-300                 土地銀行-微風聯名卡
-301              土地銀行-農金一卡通聯名卡
-302               土地銀行-樂活悠遊御璽卡
-303              土地銀行-賴點一卡通御璽卡
-304                 土地銀行-聯邦旅遊卡
-305               土地銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 中國信託-VISA白金卡
-1              中國信託-TeresaCard
-2             中國信託-小小兵Bello回饋卡
-3                     中國信託-簡單卡
-4             中國信託-JCB一卡通聯名晶緻卡
-5                   中國信託-白金商務卡
-6                   中國信託-國際信用卡
-7                中國信託-ANA晶緻聯名卡
-8                中國信託-ANA極緻聯名卡
-9         中國信託-Global Mall 聯名卡
-10                 中國信託-iPlan卡
-11               中國信託-LEXUS聯名卡
-12              中國信託-LINE Pay卡
-13            中國信託-MUJI無印良品聯名卡
-14       中國信託-TAIPEI 101 夜光聯名卡
-15               中國信託-Yahoo聯名卡
-16              中國信託-大中華攜手飛聯名卡
-17             中國信託-大葉高島屋百貨聯名卡
-18               中國信託-中油VIP聯名卡
-19                中國信託-中信兄弟聯名卡
-20                中國信託-中信商旅鈦金卡
-21     中國信託-中國信託寰遊美國運通卡AMEX_金卡
-22              中國信託-中華電信聯名白金卡
-23                  中國信託-秀泰聯名卡
-24                  中國信託-享想生活卡
-25              中國信託-南紡購物中心聯名卡
-26                  中國信託-紅利御璽卡
-27                中國信託-現金回饋鈦金卡
-28              中國信託-勤美天地聯名晶緻卡
-29                    中國信託-鼎極卡
-                ...           
-276            中國信託-北港朝天宮媽祖認同卡
-277               中國信託-故宮之友認同卡
-278                 中國信託-悠遊聯名卡
-279                 中國信託-鈦金商旅卡
-280                 中國信託-金采白金卡
-281               中國信託-金鑽商旅白金卡
-282                 中國信託-鈦金商旅卡
-283             中國信託-Bankee信用卡
-284          中國信託-C'est Moi我的卡
-285              中國信託-eTag 聯名卡
-286       中國信託-New Century MC卡
-287                 中國信託-快樂信用卡
-288               中國信託-華信航空聯名卡
-289                中國信託-F1 加油卡
-290       中國信託-Tiger City悠遊白金卡
-291                 中國信託-大立無限卡
-292               中國信託-全國加油聯名卡
-293               中國信託-幸福御守御璽卡
-294                   中國信託-紅利卡
-295                中國信託-美華泰聯名卡
-296                 中國信託-泰航聯名卡
-297                中國信託-理財型白金卡
-298               中國信託-凱撒飯店聯名卡
-299                 中國信託-順發聯名卡
-300                 中國信託-微風聯名卡
-301              中國信託-農金一卡通聯名卡
-302               中國信託-樂活悠遊御璽卡
-303              中國信託-賴點一卡通御璽卡
-304                 中國信託-聯邦旅遊卡
-305               中國信託-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 元大銀行-VISA白金卡
-1              元大銀行-TeresaCard
-2             元大銀行-小小兵Bello回饋卡
-3                     元大銀行-簡單卡
-4             元大銀行-JCB一卡通聯名晶緻卡
-5                   元大銀行-白金商務卡
-6                   元大銀行-國際信用卡
-7                元大銀行-ANA晶緻聯名卡
-8                元大銀行-ANA極緻聯名卡
-9         元大銀行-Global Mall 聯名卡
-10                 元大銀行-iPlan卡
-11               元大銀行-LEXUS聯名卡
-12              元大銀行-LINE Pay卡
-13            元大銀行-MUJI無印良品聯名卡
-14       元大銀行-TAIPEI 101 夜光聯名卡
-15               元大銀行-Yahoo聯名卡
-16              元大銀行-大中華攜手飛聯名卡
-17             元大銀行-大葉高島屋百貨聯名卡
-18               元大銀行-中油VIP聯名卡
-19                元大銀行-中信兄弟聯名卡
-20                元大銀行-中信商旅鈦金卡
-21     元大銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              元大銀行-中華電信聯名白金卡
-23                  元大銀行-秀泰聯名卡
-24                  元大銀行-享想生活卡
-25              元大銀行-南紡購物中心聯名卡
-26                  元大銀行-紅利御璽卡
-27                元大銀行-現金回饋鈦金卡
-28              元大銀行-勤美天地聯名晶緻卡
-29                    元大銀行-鼎極卡
-                ...           
-276            元大銀行-北港朝天宮媽祖認同卡
-277               元大銀行-故宮之友認同卡
-278                 元大銀行-悠遊聯名卡
-279                 元大銀行-鈦金商旅卡
-280                 元大銀行-金采白金卡
-281               元大銀行-金鑽商旅白金卡
-282                 元大銀行-鈦金商旅卡
-283             元大銀行-Bankee信用卡
-284          元大銀行-C'est Moi我的卡
-285              元大銀行-eTag 聯名卡
-286       元大銀行-New Century MC卡
-287                 元大銀行-快樂信用卡
-288               元大銀行-華信航空聯名卡
-289                元大銀行-F1 加油卡
-290       元大銀行-Tiger City悠遊白金卡
-291                 元大銀行-大立無限卡
-292               元大銀行-全國加油聯名卡
-293               元大銀行-幸福御守御璽卡
-294                   元大銀行-紅利卡
-295                元大銀行-美華泰聯名卡
-296                 元大銀行-泰航聯名卡
-297                元大銀行-理財型白金卡
-298               元大銀行-凱撒飯店聯名卡
-299                 元大銀行-順發聯名卡
-300                 元大銀行-微風聯名卡
-301              元大銀行-農金一卡通聯名卡
-302               元大銀行-樂活悠遊御璽卡
-303              元大銀行-賴點一卡通御璽卡
-304                 元大銀行-聯邦旅遊卡
-305               元大銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 日盛銀行-VISA白金卡
-1              日盛銀行-TeresaCard
-2             日盛銀行-小小兵Bello回饋卡
-3                     日盛銀行-簡單卡
-4             日盛銀行-JCB一卡通聯名晶緻卡
-5                   日盛銀行-白金商務卡
-6                   日盛銀行-國際信用卡
-7                日盛銀行-ANA晶緻聯名卡
-8                日盛銀行-ANA極緻聯名卡
-9         日盛銀行-Global Mall 聯名卡
-10                 日盛銀行-iPlan卡
-11               日盛銀行-LEXUS聯名卡
-12              日盛銀行-LINE Pay卡
-13            日盛銀行-MUJI無印良品聯名卡
-14       日盛銀行-TAIPEI 101 夜光聯名卡
-15               日盛銀行-Yahoo聯名卡
-16              日盛銀行-大中華攜手飛聯名卡
-17             日盛銀行-大葉高島屋百貨聯名卡
-18               日盛銀行-中油VIP聯名卡
-19                日盛銀行-中信兄弟聯名卡
-20                日盛銀行-中信商旅鈦金卡
-21     日盛銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              日盛銀行-中華電信聯名白金卡
-23                  日盛銀行-秀泰聯名卡
-24                  日盛銀行-享想生活卡
-25              日盛銀行-南紡購物中心聯名卡
-26                  日盛銀行-紅利御璽卡
-27                日盛銀行-現金回饋鈦金卡
-28              日盛銀行-勤美天地聯名晶緻卡
-29                    日盛銀行-鼎極卡
-                ...           
-276            日盛銀行-北港朝天宮媽祖認同卡
-277               日盛銀行-故宮之友認同卡
-278                 日盛銀行-悠遊聯名卡
-279                 日盛銀行-鈦金商旅卡
-280                 日盛銀行-金采白金卡
-281               日盛銀行-金鑽商旅白金卡
-282                 日盛銀行-鈦金商旅卡
-283             日盛銀行-Bankee信用卡
-284          日盛銀行-C'est Moi我的卡
-285              日盛銀行-eTag 聯名卡
-286       日盛銀行-New Century MC卡
-287                 日盛銀行-快樂信用卡
-288               日盛銀行-華信航空聯名卡
-289                日盛銀行-F1 加油卡
-290       日盛銀行-Tiger City悠遊白金卡
-291                 日盛銀行-大立無限卡
-292               日盛銀行-全國加油聯名卡
-293               日盛銀行-幸福御守御璽卡
-294                   日盛銀行-紅利卡
-295                日盛銀行-美華泰聯名卡
-296                 日盛銀行-泰航聯名卡
-297                日盛銀行-理財型白金卡
-298               日盛銀行-凱撒飯店聯名卡
-299                 日盛銀行-順發聯名卡
-300                 日盛銀行-微風聯名卡
-301              日盛銀行-農金一卡通聯名卡
-302               日盛銀行-樂活悠遊御璽卡
-303              日盛銀行-賴點一卡通御璽卡
-304                 日盛銀行-聯邦旅遊卡
-305               日盛銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 王道銀行-VISA白金卡
-1              王道銀行-TeresaCard
-2             王道銀行-小小兵Bello回饋卡
-3                     王道銀行-簡單卡
-4             王道銀行-JCB一卡通聯名晶緻卡
-5                   王道銀行-白金商務卡
-6                   王道銀行-國際信用卡
-7                王道銀行-ANA晶緻聯名卡
-8                王道銀行-ANA極緻聯名卡
-9         王道銀行-Global Mall 聯名卡
-10                 王道銀行-iPlan卡
-11               王道銀行-LEXUS聯名卡
-12              王道銀行-LINE Pay卡
-13            王道銀行-MUJI無印良品聯名卡
-14       王道銀行-TAIPEI 101 夜光聯名卡
-15               王道銀行-Yahoo聯名卡
-16              王道銀行-大中華攜手飛聯名卡
-17             王道銀行-大葉高島屋百貨聯名卡
-18               王道銀行-中油VIP聯名卡
-19                王道銀行-中信兄弟聯名卡
-20                王道銀行-中信商旅鈦金卡
-21     王道銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              王道銀行-中華電信聯名白金卡
-23                  王道銀行-秀泰聯名卡
-24                  王道銀行-享想生活卡
-25              王道銀行-南紡購物中心聯名卡
-26                  王道銀行-紅利御璽卡
-27                王道銀行-現金回饋鈦金卡
-28              王道銀行-勤美天地聯名晶緻卡
-29                    王道銀行-鼎極卡
-                ...           
-276            王道銀行-北港朝天宮媽祖認同卡
-277               王道銀行-故宮之友認同卡
-278                 王道銀行-悠遊聯名卡
-279                 王道銀行-鈦金商旅卡
-280                 王道銀行-金采白金卡
-281               王道銀行-金鑽商旅白金卡
-282                 王道銀行-鈦金商旅卡
-283             王道銀行-Bankee信用卡
-284          王道銀行-C'est Moi我的卡
-285              王道銀行-eTag 聯名卡
-286       王道銀行-New Century MC卡
-287                 王道銀行-快樂信用卡
-288               王道銀行-華信航空聯名卡
-289                王道銀行-F1 加油卡
-290       王道銀行-Tiger City悠遊白金卡
-291                 王道銀行-大立無限卡
-292               王道銀行-全國加油聯名卡
-293               王道銀行-幸福御守御璽卡
-294                   王道銀行-紅利卡
-295                王道銀行-美華泰聯名卡
-296                 王道銀行-泰航聯名卡
-297                王道銀行-理財型白金卡
-298               王道銀行-凱撒飯店聯名卡
-299                 王道銀行-順發聯名卡
-300                 王道銀行-微風聯名卡
-301              王道銀行-農金一卡通聯名卡
-302               王道銀行-樂活悠遊御璽卡
-303              王道銀行-賴點一卡通御璽卡
-304                 王道銀行-聯邦旅遊卡
-305               王道銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 台中商銀-VISA白金卡
-1              台中商銀-TeresaCard
-2             台中商銀-小小兵Bello回饋卡
-3                     台中商銀-簡單卡
-4             台中商銀-JCB一卡通聯名晶緻卡
-5                   台中商銀-白金商務卡
-6                   台中商銀-國際信用卡
-7                台中商銀-ANA晶緻聯名卡
-8                台中商銀-ANA極緻聯名卡
-9         台中商銀-Global Mall 聯名卡
-10                 台中商銀-iPlan卡
-11               台中商銀-LEXUS聯名卡
-12              台中商銀-LINE Pay卡
-13            台中商銀-MUJI無印良品聯名卡
-14       台中商銀-TAIPEI 101 夜光聯名卡
-15               台中商銀-Yahoo聯名卡
-16              台中商銀-大中華攜手飛聯名卡
-17             台中商銀-大葉高島屋百貨聯名卡
-18               台中商銀-中油VIP聯名卡
-19                台中商銀-中信兄弟聯名卡
-20                台中商銀-中信商旅鈦金卡
-21     台中商銀-中國信託寰遊美國運通卡AMEX_金卡
-22              台中商銀-中華電信聯名白金卡
-23                  台中商銀-秀泰聯名卡
-24                  台中商銀-享想生活卡
-25              台中商銀-南紡購物中心聯名卡
-26                  台中商銀-紅利御璽卡
-27                台中商銀-現金回饋鈦金卡
-28              台中商銀-勤美天地聯名晶緻卡
-29                    台中商銀-鼎極卡
-                ...           
-276            台中商銀-北港朝天宮媽祖認同卡
-277               台中商銀-故宮之友認同卡
-278                 台中商銀-悠遊聯名卡
-279                 台中商銀-鈦金商旅卡
-280                 台中商銀-金采白金卡
-281               台中商銀-金鑽商旅白金卡
-282                 台中商銀-鈦金商旅卡
-283             台中商銀-Bankee信用卡
-284          台中商銀-C'est Moi我的卡
-285              台中商銀-eTag 聯名卡
-286       台中商銀-New Century MC卡
-287                 台中商銀-快樂信用卡
-288               台中商銀-華信航空聯名卡
-289                台中商銀-F1 加油卡
-290       台中商銀-Tiger City悠遊白金卡
-291                 台中商銀-大立無限卡
-292               台中商銀-全國加油聯名卡
-293               台中商銀-幸福御守御璽卡
-294                   台中商銀-紅利卡
-295                台中商銀-美華泰聯名卡
-296                 台中商銀-泰航聯名卡
-297                台中商銀-理財型白金卡
-298               台中商銀-凱撒飯店聯名卡
-299                 台中商銀-順發聯名卡
-300                 台中商銀-微風聯名卡
-301              台中商銀-農金一卡通聯名卡
-302               台中商銀-樂活悠遊御璽卡
-303              台中商銀-賴點一卡通御璽卡
-304                 台中商銀-聯邦旅遊卡
-305               台中商銀-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 台北富邦-VISA白金卡
-1              台北富邦-TeresaCard
-2             台北富邦-小小兵Bello回饋卡
-3                     台北富邦-簡單卡
-4             台北富邦-JCB一卡通聯名晶緻卡
-5                   台北富邦-白金商務卡
-6                   台北富邦-國際信用卡
-7                台北富邦-ANA晶緻聯名卡
-8                台北富邦-ANA極緻聯名卡
-9         台北富邦-Global Mall 聯名卡
-10                 台北富邦-iPlan卡
-11               台北富邦-LEXUS聯名卡
-12              台北富邦-LINE Pay卡
-13            台北富邦-MUJI無印良品聯名卡
-14       台北富邦-TAIPEI 101 夜光聯名卡
-15               台北富邦-Yahoo聯名卡
-16              台北富邦-大中華攜手飛聯名卡
-17             台北富邦-大葉高島屋百貨聯名卡
-18               台北富邦-中油VIP聯名卡
-19                台北富邦-中信兄弟聯名卡
-20                台北富邦-中信商旅鈦金卡
-21     台北富邦-中國信託寰遊美國運通卡AMEX_金卡
-22              台北富邦-中華電信聯名白金卡
-23                  台北富邦-秀泰聯名卡
-24                  台北富邦-享想生活卡
-25              台北富邦-南紡購物中心聯名卡
-26                  台北富邦-紅利御璽卡
-27                台北富邦-現金回饋鈦金卡
-28              台北富邦-勤美天地聯名晶緻卡
-29                    台北富邦-鼎極卡
-                ...           
-276            台北富邦-北港朝天宮媽祖認同卡
-277               台北富邦-故宮之友認同卡
-278                 台北富邦-悠遊聯名卡
-279                 台北富邦-鈦金商旅卡
-280                 台北富邦-金采白金卡
-281               台北富邦-金鑽商旅白金卡
-282                 台北富邦-鈦金商旅卡
-283             台北富邦-Bankee信用卡
-284          台北富邦-C'est Moi我的卡
-285              台北富邦-eTag 聯名卡
-286       台北富邦-New Century MC卡
-287                 台北富邦-快樂信用卡
-288               台北富邦-華信航空聯名卡
-289                台北富邦-F1 加油卡
-290       台北富邦-Tiger City悠遊白金卡
-291                 台北富邦-大立無限卡
-292               台北富邦-全國加油聯名卡
-293               台北富邦-幸福御守御璽卡
-294                   台北富邦-紅利卡
-295                台北富邦-美華泰聯名卡
-296                 台北富邦-泰航聯名卡
-297                台北富邦-理財型白金卡
-298               台北富邦-凱撒飯店聯名卡
-299                 台北富邦-順發聯名卡
-300                 台北富邦-微風聯名卡
-301              台北富邦-農金一卡通聯名卡
-302               台北富邦-樂活悠遊御璽卡
-303              台北富邦-賴點一卡通御璽卡
-304                 台北富邦-聯邦旅遊卡
-305               台北富邦-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 台新銀行-VISA白金卡
-1              台新銀行-TeresaCard
-2             台新銀行-小小兵Bello回饋卡
-3                     台新銀行-簡單卡
-4             台新銀行-JCB一卡通聯名晶緻卡
-5                   台新銀行-白金商務卡
-6                   台新銀行-國際信用卡
-7                台新銀行-ANA晶緻聯名卡
-8                台新銀行-ANA極緻聯名卡
-9         台新銀行-Global Mall 聯名卡
-10                 台新銀行-iPlan卡
-11               台新銀行-LEXUS聯名卡
-12              台新銀行-LINE Pay卡
-13            台新銀行-MUJI無印良品聯名卡
-14       台新銀行-TAIPEI 101 夜光聯名卡
-15               台新銀行-Yahoo聯名卡
-16              台新銀行-大中華攜手飛聯名卡
-17             台新銀行-大葉高島屋百貨聯名卡
-18               台新銀行-中油VIP聯名卡
-19                台新銀行-中信兄弟聯名卡
-20                台新銀行-中信商旅鈦金卡
-21     台新銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              台新銀行-中華電信聯名白金卡
-23                  台新銀行-秀泰聯名卡
-24                  台新銀行-享想生活卡
-25              台新銀行-南紡購物中心聯名卡
-26                  台新銀行-紅利御璽卡
-27                台新銀行-現金回饋鈦金卡
-28              台新銀行-勤美天地聯名晶緻卡
-29                    台新銀行-鼎極卡
-                ...           
-276            台新銀行-北港朝天宮媽祖認同卡
-277               台新銀行-故宮之友認同卡
-278                 台新銀行-悠遊聯名卡
-279                 台新銀行-鈦金商旅卡
-280                 台新銀行-金采白金卡
-281               台新銀行-金鑽商旅白金卡
-282                 台新銀行-鈦金商旅卡
-283             台新銀行-Bankee信用卡
-284          台新銀行-C'est Moi我的卡
-285              台新銀行-eTag 聯名卡
-286       台新銀行-New Century MC卡
-287                 台新銀行-快樂信用卡
-288               台新銀行-華信航空聯名卡
-289                台新銀行-F1 加油卡
-290       台新銀行-Tiger City悠遊白金卡
-291                 台新銀行-大立無限卡
-292               台新銀行-全國加油聯名卡
-293               台新銀行-幸福御守御璽卡
-294                   台新銀行-紅利卡
-295                台新銀行-美華泰聯名卡
-296                 台新銀行-泰航聯名卡
-297                台新銀行-理財型白金卡
-298               台新銀行-凱撒飯店聯名卡
-299                 台新銀行-順發聯名卡
-300                 台新銀行-微風聯名卡
-301              台新銀行-農金一卡通聯名卡
-302               台新銀行-樂活悠遊御璽卡
-303              台新銀行-賴點一卡通御璽卡
-304                 台新銀行-聯邦旅遊卡
-305               台新銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 台灣樂天-VISA白金卡
-1              台灣樂天-TeresaCard
-2             台灣樂天-小小兵Bello回饋卡
-3                     台灣樂天-簡單卡
-4             台灣樂天-JCB一卡通聯名晶緻卡
-5                   台灣樂天-白金商務卡
-6                   台灣樂天-國際信用卡
-7                台灣樂天-ANA晶緻聯名卡
-8                台灣樂天-ANA極緻聯名卡
-9         台灣樂天-Global Mall 聯名卡
-10                 台灣樂天-iPlan卡
-11               台灣樂天-LEXUS聯名卡
-12              台灣樂天-LINE Pay卡
-13            台灣樂天-MUJI無印良品聯名卡
-14       台灣樂天-TAIPEI 101 夜光聯名卡
-15               台灣樂天-Yahoo聯名卡
-16              台灣樂天-大中華攜手飛聯名卡
-17             台灣樂天-大葉高島屋百貨聯名卡
-18               台灣樂天-中油VIP聯名卡
-19                台灣樂天-中信兄弟聯名卡
-20                台灣樂天-中信商旅鈦金卡
-21     台灣樂天-中國信託寰遊美國運通卡AMEX_金卡
-22              台灣樂天-中華電信聯名白金卡
-23                  台灣樂天-秀泰聯名卡
-24                  台灣樂天-享想生活卡
-25              台灣樂天-南紡購物中心聯名卡
-26                  台灣樂天-紅利御璽卡
-27                台灣樂天-現金回饋鈦金卡
-28              台灣樂天-勤美天地聯名晶緻卡
-29                    台灣樂天-鼎極卡
-                ...           
-276            台灣樂天-北港朝天宮媽祖認同卡
-277               台灣樂天-故宮之友認同卡
-278                 台灣樂天-悠遊聯名卡
-279                 台灣樂天-鈦金商旅卡
-280                 台灣樂天-金采白金卡
-281               台灣樂天-金鑽商旅白金卡
-282                 台灣樂天-鈦金商旅卡
-283             台灣樂天-Bankee信用卡
-284          台灣樂天-C'est Moi我的卡
-285              台灣樂天-eTag 聯名卡
-286       台灣樂天-New Century MC卡
-287                 台灣樂天-快樂信用卡
-288               台灣樂天-華信航空聯名卡
-289                台灣樂天-F1 加油卡
-290       台灣樂天-Tiger City悠遊白金卡
-291                 台灣樂天-大立無限卡
-292               台灣樂天-全國加油聯名卡
-293               台灣樂天-幸福御守御璽卡
-294                   台灣樂天-紅利卡
-295                台灣樂天-美華泰聯名卡
-296                 台灣樂天-泰航聯名卡
-297                台灣樂天-理財型白金卡
-298               台灣樂天-凱撒飯店聯名卡
-299                 台灣樂天-順發聯名卡
-300                 台灣樂天-微風聯名卡
-301              台灣樂天-農金一卡通聯名卡
-302               台灣樂天-樂活悠遊御璽卡
-303              台灣樂天-賴點一卡通御璽卡
-304                 台灣樂天-聯邦旅遊卡
-305               台灣樂天-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 永豐銀行-VISA白金卡
-1              永豐銀行-TeresaCard
-2             永豐銀行-小小兵Bello回饋卡
-3                     永豐銀行-簡單卡
-4             永豐銀行-JCB一卡通聯名晶緻卡
-5                   永豐銀行-白金商務卡
-6                   永豐銀行-國際信用卡
-7                永豐銀行-ANA晶緻聯名卡
-8                永豐銀行-ANA極緻聯名卡
-9         永豐銀行-Global Mall 聯名卡
-10                 永豐銀行-iPlan卡
-11               永豐銀行-LEXUS聯名卡
-12              永豐銀行-LINE Pay卡
-13            永豐銀行-MUJI無印良品聯名卡
-14       永豐銀行-TAIPEI 101 夜光聯名卡
-15               永豐銀行-Yahoo聯名卡
-16              永豐銀行-大中華攜手飛聯名卡
-17             永豐銀行-大葉高島屋百貨聯名卡
-18               永豐銀行-中油VIP聯名卡
-19                永豐銀行-中信兄弟聯名卡
-20                永豐銀行-中信商旅鈦金卡
-21     永豐銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              永豐銀行-中華電信聯名白金卡
-23                  永豐銀行-秀泰聯名卡
-24                  永豐銀行-享想生活卡
-25              永豐銀行-南紡購物中心聯名卡
-26                  永豐銀行-紅利御璽卡
-27                永豐銀行-現金回饋鈦金卡
-28              永豐銀行-勤美天地聯名晶緻卡
-29                    永豐銀行-鼎極卡
-                ...           
-276            永豐銀行-北港朝天宮媽祖認同卡
-277               永豐銀行-故宮之友認同卡
-278                 永豐銀行-悠遊聯名卡
-279                 永豐銀行-鈦金商旅卡
-280                 永豐銀行-金采白金卡
-281               永豐銀行-金鑽商旅白金卡
-282                 永豐銀行-鈦金商旅卡
-283             永豐銀行-Bankee信用卡
-284          永豐銀行-C'est Moi我的卡
-285              永豐銀行-eTag 聯名卡
-286       永豐銀行-New Century MC卡
-287                 永豐銀行-快樂信用卡
-288               永豐銀行-華信航空聯名卡
-289                永豐銀行-F1 加油卡
-290       永豐銀行-Tiger City悠遊白金卡
-291                 永豐銀行-大立無限卡
-292               永豐銀行-全國加油聯名卡
-293               永豐銀行-幸福御守御璽卡
-294                   永豐銀行-紅利卡
-295                永豐銀行-美華泰聯名卡
-296                 永豐銀行-泰航聯名卡
-297                永豐銀行-理財型白金卡
-298               永豐銀行-凱撒飯店聯名卡
-299                 永豐銀行-順發聯名卡
-300                 永豐銀行-微風聯名卡
-301              永豐銀行-農金一卡通聯名卡
-302               永豐銀行-樂活悠遊御璽卡
-303              永豐銀行-賴點一卡通御璽卡
-304                 永豐銀行-聯邦旅遊卡
-305               永豐銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 玉山銀行-VISA白金卡
-1              玉山銀行-TeresaCard
-2             玉山銀行-小小兵Bello回饋卡
-3                     玉山銀行-簡單卡
-4             玉山銀行-JCB一卡通聯名晶緻卡
-5                   玉山銀行-白金商務卡
-6                   玉山銀行-國際信用卡
-7                玉山銀行-ANA晶緻聯名卡
-8                玉山銀行-ANA極緻聯名卡
-9         玉山銀行-Global Mall 聯名卡
-10                 玉山銀行-iPlan卡
-11               玉山銀行-LEXUS聯名卡
-12              玉山銀行-LINE Pay卡
-13            玉山銀行-MUJI無印良品聯名卡
-14       玉山銀行-TAIPEI 101 夜光聯名卡
-15               玉山銀行-Yahoo聯名卡
-16              玉山銀行-大中華攜手飛聯名卡
-17             玉山銀行-大葉高島屋百貨聯名卡
-18               玉山銀行-中油VIP聯名卡
-19                玉山銀行-中信兄弟聯名卡
-20                玉山銀行-中信商旅鈦金卡
-21     玉山銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              玉山銀行-中華電信聯名白金卡
-23                  玉山銀行-秀泰聯名卡
-24                  玉山銀行-享想生活卡
-25              玉山銀行-南紡購物中心聯名卡
-26                  玉山銀行-紅利御璽卡
-27                玉山銀行-現金回饋鈦金卡
-28              玉山銀行-勤美天地聯名晶緻卡
-29                    玉山銀行-鼎極卡
-                ...           
-276            玉山銀行-北港朝天宮媽祖認同卡
-277               玉山銀行-故宮之友認同卡
-278                 玉山銀行-悠遊聯名卡
-279                 玉山銀行-鈦金商旅卡
-280                 玉山銀行-金采白金卡
-281               玉山銀行-金鑽商旅白金卡
-282                 玉山銀行-鈦金商旅卡
-283             玉山銀行-Bankee信用卡
-284          玉山銀行-C'est Moi我的卡
-285              玉山銀行-eTag 聯名卡
-286       玉山銀行-New Century MC卡
-287                 玉山銀行-快樂信用卡
-288               玉山銀行-華信航空聯名卡
-289                玉山銀行-F1 加油卡
-290       玉山銀行-Tiger City悠遊白金卡
-291                 玉山銀行-大立無限卡
-292               玉山銀行-全國加油聯名卡
-293               玉山銀行-幸福御守御璽卡
-294                   玉山銀行-紅利卡
-295                玉山銀行-美華泰聯名卡
-296                 玉山銀行-泰航聯名卡
-297                玉山銀行-理財型白金卡
-298               玉山銀行-凱撒飯店聯名卡
-299                 玉山銀行-順發聯名卡
-300                 玉山銀行-微風聯名卡
-301              玉山銀行-農金一卡通聯名卡
-302               玉山銀行-樂活悠遊御璽卡
-303              玉山銀行-賴點一卡通御璽卡
-304                 玉山銀行-聯邦旅遊卡
-305               玉山銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 兆豐銀行-VISA白金卡
-1              兆豐銀行-TeresaCard
-2             兆豐銀行-小小兵Bello回饋卡
-3                     兆豐銀行-簡單卡
-4             兆豐銀行-JCB一卡通聯名晶緻卡
-5                   兆豐銀行-白金商務卡
-6                   兆豐銀行-國際信用卡
-7                兆豐銀行-ANA晶緻聯名卡
-8                兆豐銀行-ANA極緻聯名卡
-9         兆豐銀行-Global Mall 聯名卡
-10                 兆豐銀行-iPlan卡
-11               兆豐銀行-LEXUS聯名卡
-12              兆豐銀行-LINE Pay卡
-13            兆豐銀行-MUJI無印良品聯名卡
-14       兆豐銀行-TAIPEI 101 夜光聯名卡
-15               兆豐銀行-Yahoo聯名卡
-16              兆豐銀行-大中華攜手飛聯名卡
-17             兆豐銀行-大葉高島屋百貨聯名卡
-18               兆豐銀行-中油VIP聯名卡
-19                兆豐銀行-中信兄弟聯名卡
-20                兆豐銀行-中信商旅鈦金卡
-21     兆豐銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              兆豐銀行-中華電信聯名白金卡
-23                  兆豐銀行-秀泰聯名卡
-24                  兆豐銀行-享想生活卡
-25              兆豐銀行-南紡購物中心聯名卡
-26                  兆豐銀行-紅利御璽卡
-27                兆豐銀行-現金回饋鈦金卡
-28              兆豐銀行-勤美天地聯名晶緻卡
-29                    兆豐銀行-鼎極卡
-                ...           
-276            兆豐銀行-北港朝天宮媽祖認同卡
-277               兆豐銀行-故宮之友認同卡
-278                 兆豐銀行-悠遊聯名卡
-279                 兆豐銀行-鈦金商旅卡
-280                 兆豐銀行-金采白金卡
-281               兆豐銀行-金鑽商旅白金卡
-282                 兆豐銀行-鈦金商旅卡
-283             兆豐銀行-Bankee信用卡
-284          兆豐銀行-C'est Moi我的卡
-285              兆豐銀行-eTag 聯名卡
-286       兆豐銀行-New Century MC卡
-287                 兆豐銀行-快樂信用卡
-288               兆豐銀行-華信航空聯名卡
-289                兆豐銀行-F1 加油卡
-290       兆豐銀行-Tiger City悠遊白金卡
-291                 兆豐銀行-大立無限卡
-292               兆豐銀行-全國加油聯名卡
-293               兆豐銀行-幸福御守御璽卡
-294                   兆豐銀行-紅利卡
-295                兆豐銀行-美華泰聯名卡
-296                 兆豐銀行-泰航聯名卡
-297                兆豐銀行-理財型白金卡
-298               兆豐銀行-凱撒飯店聯名卡
-299                 兆豐銀行-順發聯名卡
-300                 兆豐銀行-微風聯名卡
-301              兆豐銀行-農金一卡通聯名卡
-302               兆豐銀行-樂活悠遊御璽卡
-303              兆豐銀行-賴點一卡通御璽卡
-304                 兆豐銀行-聯邦旅遊卡
-305               兆豐銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 合作金庫-VISA白金卡
-1              合作金庫-TeresaCard
-2             合作金庫-小小兵Bello回饋卡
-3                     合作金庫-簡單卡
-4             合作金庫-JCB一卡通聯名晶緻卡
-5                   合作金庫-白金商務卡
-6                   合作金庫-國際信用卡
-7                合作金庫-ANA晶緻聯名卡
-8                合作金庫-ANA極緻聯名卡
-9         合作金庫-Global Mall 聯名卡
-10                 合作金庫-iPlan卡
-11               合作金庫-LEXUS聯名卡
-12              合作金庫-LINE Pay卡
-13            合作金庫-MUJI無印良品聯名卡
-14       合作金庫-TAIPEI 101 夜光聯名卡
-15               合作金庫-Yahoo聯名卡
-16              合作金庫-大中華攜手飛聯名卡
-17             合作金庫-大葉高島屋百貨聯名卡
-18               合作金庫-中油VIP聯名卡
-19                合作金庫-中信兄弟聯名卡
-20                合作金庫-中信商旅鈦金卡
-21     合作金庫-中國信託寰遊美國運通卡AMEX_金卡
-22              合作金庫-中華電信聯名白金卡
-23                  合作金庫-秀泰聯名卡
-24                  合作金庫-享想生活卡
-25              合作金庫-南紡購物中心聯名卡
-26                  合作金庫-紅利御璽卡
-27                合作金庫-現金回饋鈦金卡
-28              合作金庫-勤美天地聯名晶緻卡
-29                    合作金庫-鼎極卡
-                ...           
-276            合作金庫-北港朝天宮媽祖認同卡
-277               合作金庫-故宮之友認同卡
-278                 合作金庫-悠遊聯名卡
-279                 合作金庫-鈦金商旅卡
-280                 合作金庫-金采白金卡
-281               合作金庫-金鑽商旅白金卡
-282                 合作金庫-鈦金商旅卡
-283             合作金庫-Bankee信用卡
-284          合作金庫-C'est Moi我的卡
-285              合作金庫-eTag 聯名卡
-286       合作金庫-New Century MC卡
-287                 合作金庫-快樂信用卡
-288               合作金庫-華信航空聯名卡
-289                合作金庫-F1 加油卡
-290       合作金庫-Tiger City悠遊白金卡
-291                 合作金庫-大立無限卡
-292               合作金庫-全國加油聯名卡
-293               合作金庫-幸福御守御璽卡
-294                   合作金庫-紅利卡
-295                合作金庫-美華泰聯名卡
-296                 合作金庫-泰航聯名卡
-297                合作金庫-理財型白金卡
-298               合作金庫-凱撒飯店聯名卡
-299                 合作金庫-順發聯名卡
-300                 合作金庫-微風聯名卡
-301              合作金庫-農金一卡通聯名卡
-302               合作金庫-樂活悠遊御璽卡
-303              合作金庫-賴點一卡通御璽卡
-304                 合作金庫-聯邦旅遊卡
-305               合作金庫-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 安泰銀行-VISA白金卡
-1              安泰銀行-TeresaCard
-2             安泰銀行-小小兵Bello回饋卡
-3                     安泰銀行-簡單卡
-4             安泰銀行-JCB一卡通聯名晶緻卡
-5                   安泰銀行-白金商務卡
-6                   安泰銀行-國際信用卡
-7                安泰銀行-ANA晶緻聯名卡
-8                安泰銀行-ANA極緻聯名卡
-9         安泰銀行-Global Mall 聯名卡
-10                 安泰銀行-iPlan卡
-11               安泰銀行-LEXUS聯名卡
-12              安泰銀行-LINE Pay卡
-13            安泰銀行-MUJI無印良品聯名卡
-14       安泰銀行-TAIPEI 101 夜光聯名卡
-15               安泰銀行-Yahoo聯名卡
-16              安泰銀行-大中華攜手飛聯名卡
-17             安泰銀行-大葉高島屋百貨聯名卡
-18               安泰銀行-中油VIP聯名卡
-19                安泰銀行-中信兄弟聯名卡
-20                安泰銀行-中信商旅鈦金卡
-21     安泰銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              安泰銀行-中華電信聯名白金卡
-23                  安泰銀行-秀泰聯名卡
-24                  安泰銀行-享想生活卡
-25              安泰銀行-南紡購物中心聯名卡
-26                  安泰銀行-紅利御璽卡
-27                安泰銀行-現金回饋鈦金卡
-28              安泰銀行-勤美天地聯名晶緻卡
-29                    安泰銀行-鼎極卡
-                ...           
-276            安泰銀行-北港朝天宮媽祖認同卡
-277               安泰銀行-故宮之友認同卡
-278                 安泰銀行-悠遊聯名卡
-279                 安泰銀行-鈦金商旅卡
-280                 安泰銀行-金采白金卡
-281               安泰銀行-金鑽商旅白金卡
-282                 安泰銀行-鈦金商旅卡
-283             安泰銀行-Bankee信用卡
-284          安泰銀行-C'est Moi我的卡
-285              安泰銀行-eTag 聯名卡
-286       安泰銀行-New Century MC卡
-287                 安泰銀行-快樂信用卡
-288               安泰銀行-華信航空聯名卡
-289                安泰銀行-F1 加油卡
-290       安泰銀行-Tiger City悠遊白金卡
-291                 安泰銀行-大立無限卡
-292               安泰銀行-全國加油聯名卡
-293               安泰銀行-幸福御守御璽卡
-294                   安泰銀行-紅利卡
-295                安泰銀行-美華泰聯名卡
-296                 安泰銀行-泰航聯名卡
-297                安泰銀行-理財型白金卡
-298               安泰銀行-凱撒飯店聯名卡
-299                 安泰銀行-順發聯名卡
-300                 安泰銀行-微風聯名卡
-301              安泰銀行-農金一卡通聯名卡
-302               安泰銀行-樂活悠遊御璽卡
-303              安泰銀行-賴點一卡通御璽卡
-304                 安泰銀行-聯邦旅遊卡
-305               安泰銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 花旗銀行-VISA白金卡
-1              花旗銀行-TeresaCard
-2             花旗銀行-小小兵Bello回饋卡
-3                     花旗銀行-簡單卡
-4             花旗銀行-JCB一卡通聯名晶緻卡
-5                   花旗銀行-白金商務卡
-6                   花旗銀行-國際信用卡
-7                花旗銀行-ANA晶緻聯名卡
-8                花旗銀行-ANA極緻聯名卡
-9         花旗銀行-Global Mall 聯名卡
-10                 花旗銀行-iPlan卡
-11               花旗銀行-LEXUS聯名卡
-12              花旗銀行-LINE Pay卡
-13            花旗銀行-MUJI無印良品聯名卡
-14       花旗銀行-TAIPEI 101 夜光聯名卡
-15               花旗銀行-Yahoo聯名卡
-16              花旗銀行-大中華攜手飛聯名卡
-17             花旗銀行-大葉高島屋百貨聯名卡
-18               花旗銀行-中油VIP聯名卡
-19                花旗銀行-中信兄弟聯名卡
-20                花旗銀行-中信商旅鈦金卡
-21     花旗銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              花旗銀行-中華電信聯名白金卡
-23                  花旗銀行-秀泰聯名卡
-24                  花旗銀行-享想生活卡
-25              花旗銀行-南紡購物中心聯名卡
-26                  花旗銀行-紅利御璽卡
-27                花旗銀行-現金回饋鈦金卡
-28              花旗銀行-勤美天地聯名晶緻卡
-29                    花旗銀行-鼎極卡
-                ...           
-276            花旗銀行-北港朝天宮媽祖認同卡
-277               花旗銀行-故宮之友認同卡
-278                 花旗銀行-悠遊聯名卡
-279                 花旗銀行-鈦金商旅卡
-280                 花旗銀行-金采白金卡
-281               花旗銀行-金鑽商旅白金卡
-282                 花旗銀行-鈦金商旅卡
-283             花旗銀行-Bankee信用卡
-284          花旗銀行-C'est Moi我的卡
-285              花旗銀行-eTag 聯名卡
-286       花旗銀行-New Century MC卡
-287                 花旗銀行-快樂信用卡
-288               花旗銀行-華信航空聯名卡
-289                花旗銀行-F1 加油卡
-290       花旗銀行-Tiger City悠遊白金卡
-291                 花旗銀行-大立無限卡
-292               花旗銀行-全國加油聯名卡
-293               花旗銀行-幸福御守御璽卡
-294                   花旗銀行-紅利卡
-295                花旗銀行-美華泰聯名卡
-296                 花旗銀行-泰航聯名卡
-297                花旗銀行-理財型白金卡
-298               花旗銀行-凱撒飯店聯名卡
-299                 花旗銀行-順發聯名卡
-300                 花旗銀行-微風聯名卡
-301              花旗銀行-農金一卡通聯名卡
-302               花旗銀行-樂活悠遊御璽卡
-303              花旗銀行-賴點一卡通御璽卡
-304                 花旗銀行-聯邦旅遊卡
-305               花旗銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 星展銀行-VISA白金卡
-1              星展銀行-TeresaCard
-2             星展銀行-小小兵Bello回饋卡
-3                     星展銀行-簡單卡
-4             星展銀行-JCB一卡通聯名晶緻卡
-5                   星展銀行-白金商務卡
-6                   星展銀行-國際信用卡
-7                星展銀行-ANA晶緻聯名卡
-8                星展銀行-ANA極緻聯名卡
-9         星展銀行-Global Mall 聯名卡
-10                 星展銀行-iPlan卡
-11               星展銀行-LEXUS聯名卡
-12              星展銀行-LINE Pay卡
-13            星展銀行-MUJI無印良品聯名卡
-14       星展銀行-TAIPEI 101 夜光聯名卡
-15               星展銀行-Yahoo聯名卡
-16              星展銀行-大中華攜手飛聯名卡
-17             星展銀行-大葉高島屋百貨聯名卡
-18               星展銀行-中油VIP聯名卡
-19                星展銀行-中信兄弟聯名卡
-20                星展銀行-中信商旅鈦金卡
-21     星展銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              星展銀行-中華電信聯名白金卡
-23                  星展銀行-秀泰聯名卡
-24                  星展銀行-享想生活卡
-25              星展銀行-南紡購物中心聯名卡
-26                  星展銀行-紅利御璽卡
-27                星展銀行-現金回饋鈦金卡
-28              星展銀行-勤美天地聯名晶緻卡
-29                    星展銀行-鼎極卡
-                ...           
-276            星展銀行-北港朝天宮媽祖認同卡
-277               星展銀行-故宮之友認同卡
-278                 星展銀行-悠遊聯名卡
-279                 星展銀行-鈦金商旅卡
-280                 星展銀行-金采白金卡
-281               星展銀行-金鑽商旅白金卡
-282                 星展銀行-鈦金商旅卡
-283             星展銀行-Bankee信用卡
-284          星展銀行-C'est Moi我的卡
-285              星展銀行-eTag 聯名卡
-286       星展銀行-New Century MC卡
-287                 星展銀行-快樂信用卡
-288               星展銀行-華信航空聯名卡
-289                星展銀行-F1 加油卡
-290       星展銀行-Tiger City悠遊白金卡
-291                 星展銀行-大立無限卡
-292               星展銀行-全國加油聯名卡
-293               星展銀行-幸福御守御璽卡
-294                   星展銀行-紅利卡
-295                星展銀行-美華泰聯名卡
-296                 星展銀行-泰航聯名卡
-297                星展銀行-理財型白金卡
-298               星展銀行-凱撒飯店聯名卡
-299                 星展銀行-順發聯名卡
-300                 星展銀行-微風聯名卡
-301              星展銀行-農金一卡通聯名卡
-302               星展銀行-樂活悠遊御璽卡
-303              星展銀行-賴點一卡通御璽卡
-304                 星展銀行-聯邦旅遊卡
-305               星展銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 美國運通-VISA白金卡
-1              美國運通-TeresaCard
-2             美國運通-小小兵Bello回饋卡
-3                     美國運通-簡單卡
-4             美國運通-JCB一卡通聯名晶緻卡
-5                   美國運通-白金商務卡
-6                   美國運通-國際信用卡
-7                美國運通-ANA晶緻聯名卡
-8                美國運通-ANA極緻聯名卡
-9         美國運通-Global Mall 聯名卡
-10                 美國運通-iPlan卡
-11               美國運通-LEXUS聯名卡
-12              美國運通-LINE Pay卡
-13            美國運通-MUJI無印良品聯名卡
-14       美國運通-TAIPEI 101 夜光聯名卡
-15               美國運通-Yahoo聯名卡
-16              美國運通-大中華攜手飛聯名卡
-17             美國運通-大葉高島屋百貨聯名卡
-18               美國運通-中油VIP聯名卡
-19                美國運通-中信兄弟聯名卡
-20                美國運通-中信商旅鈦金卡
-21     美國運通-中國信託寰遊美國運通卡AMEX_金卡
-22              美國運通-中華電信聯名白金卡
-23                  美國運通-秀泰聯名卡
-24                  美國運通-享想生活卡
-25              美國運通-南紡購物中心聯名卡
-26                  美國運通-紅利御璽卡
-27                美國運通-現金回饋鈦金卡
-28              美國運通-勤美天地聯名晶緻卡
-29                    美國運通-鼎極卡
-                ...           
-276            美國運通-北港朝天宮媽祖認同卡
-277               美國運通-故宮之友認同卡
-278                 美國運通-悠遊聯名卡
-279                 美國運通-鈦金商旅卡
-280                 美國運通-金采白金卡
-281               美國運通-金鑽商旅白金卡
-282                 美國運通-鈦金商旅卡
-283             美國運通-Bankee信用卡
-284          美國運通-C'est Moi我的卡
-285              美國運通-eTag 聯名卡
-286       美國運通-New Century MC卡
-287                 美國運通-快樂信用卡
-288               美國運通-華信航空聯名卡
-289                美國運通-F1 加油卡
-290       美國運通-Tiger City悠遊白金卡
-291                 美國運通-大立無限卡
-292               美國運通-全國加油聯名卡
-293               美國運通-幸福御守御璽卡
-294                   美國運通-紅利卡
-295                美國運通-美華泰聯名卡
-296                 美國運通-泰航聯名卡
-297                美國運通-理財型白金卡
-298               美國運通-凱撒飯店聯名卡
-299                 美國運通-順發聯名卡
-300                 美國運通-微風聯名卡
-301              美國運通-農金一卡通聯名卡
-302               美國運通-樂活悠遊御璽卡
-303              美國運通-賴點一卡通御璽卡
-304                 美國運通-聯邦旅遊卡
-305               美國運通-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 高雄銀行-VISA白金卡
-1              高雄銀行-TeresaCard
-2             高雄銀行-小小兵Bello回饋卡
-3                     高雄銀行-簡單卡
-4             高雄銀行-JCB一卡通聯名晶緻卡
-5                   高雄銀行-白金商務卡
-6                   高雄銀行-國際信用卡
-7                高雄銀行-ANA晶緻聯名卡
-8                高雄銀行-ANA極緻聯名卡
-9         高雄銀行-Global Mall 聯名卡
-10                 高雄銀行-iPlan卡
-11               高雄銀行-LEXUS聯名卡
-12              高雄銀行-LINE Pay卡
-13            高雄銀行-MUJI無印良品聯名卡
-14       高雄銀行-TAIPEI 101 夜光聯名卡
-15               高雄銀行-Yahoo聯名卡
-16              高雄銀行-大中華攜手飛聯名卡
-17             高雄銀行-大葉高島屋百貨聯名卡
-18               高雄銀行-中油VIP聯名卡
-19                高雄銀行-中信兄弟聯名卡
-20                高雄銀行-中信商旅鈦金卡
-21     高雄銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              高雄銀行-中華電信聯名白金卡
-23                  高雄銀行-秀泰聯名卡
-24                  高雄銀行-享想生活卡
-25              高雄銀行-南紡購物中心聯名卡
-26                  高雄銀行-紅利御璽卡
-27                高雄銀行-現金回饋鈦金卡
-28              高雄銀行-勤美天地聯名晶緻卡
-29                    高雄銀行-鼎極卡
-                ...           
-276            高雄銀行-北港朝天宮媽祖認同卡
-277               高雄銀行-故宮之友認同卡
-278                 高雄銀行-悠遊聯名卡
-279                 高雄銀行-鈦金商旅卡
-280                 高雄銀行-金采白金卡
-281               高雄銀行-金鑽商旅白金卡
-282                 高雄銀行-鈦金商旅卡
-283             高雄銀行-Bankee信用卡
-284          高雄銀行-C'est Moi我的卡
-285              高雄銀行-eTag 聯名卡
-286       高雄銀行-New Century MC卡
-287                 高雄銀行-快樂信用卡
-288               高雄銀行-華信航空聯名卡
-289                高雄銀行-F1 加油卡
-290       高雄銀行-Tiger City悠遊白金卡
-291                 高雄銀行-大立無限卡
-292               高雄銀行-全國加油聯名卡
-293               高雄銀行-幸福御守御璽卡
-294                   高雄銀行-紅利卡
-295                高雄銀行-美華泰聯名卡
-296                 高雄銀行-泰航聯名卡
-297                高雄銀行-理財型白金卡
-298               高雄銀行-凱撒飯店聯名卡
-299                 高雄銀行-順發聯名卡
-300                 高雄銀行-微風聯名卡
-301              高雄銀行-農金一卡通聯名卡
-302               高雄銀行-樂活悠遊御璽卡
-303              高雄銀行-賴點一卡通御璽卡
-304                 高雄銀行-聯邦旅遊卡
-305               高雄銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 國泰世華-VISA白金卡
-1              國泰世華-TeresaCard
-2             國泰世華-小小兵Bello回饋卡
-3                     國泰世華-簡單卡
-4             國泰世華-JCB一卡通聯名晶緻卡
-5                   國泰世華-白金商務卡
-6                   國泰世華-國際信用卡
-7                國泰世華-ANA晶緻聯名卡
-8                國泰世華-ANA極緻聯名卡
-9         國泰世華-Global Mall 聯名卡
-10                 國泰世華-iPlan卡
-11               國泰世華-LEXUS聯名卡
-12              國泰世華-LINE Pay卡
-13            國泰世華-MUJI無印良品聯名卡
-14       國泰世華-TAIPEI 101 夜光聯名卡
-15               國泰世華-Yahoo聯名卡
-16              國泰世華-大中華攜手飛聯名卡
-17             國泰世華-大葉高島屋百貨聯名卡
-18               國泰世華-中油VIP聯名卡
-19                國泰世華-中信兄弟聯名卡
-20                國泰世華-中信商旅鈦金卡
-21     國泰世華-中國信託寰遊美國運通卡AMEX_金卡
-22              國泰世華-中華電信聯名白金卡
-23                  國泰世華-秀泰聯名卡
-24                  國泰世華-享想生活卡
-25              國泰世華-南紡購物中心聯名卡
-26                  國泰世華-紅利御璽卡
-27                國泰世華-現金回饋鈦金卡
-28              國泰世華-勤美天地聯名晶緻卡
-29                    國泰世華-鼎極卡
-                ...           
-276            國泰世華-北港朝天宮媽祖認同卡
-277               國泰世華-故宮之友認同卡
-278                 國泰世華-悠遊聯名卡
-279                 國泰世華-鈦金商旅卡
-280                 國泰世華-金采白金卡
-281               國泰世華-金鑽商旅白金卡
-282                 國泰世華-鈦金商旅卡
-283             國泰世華-Bankee信用卡
-284          國泰世華-C'est Moi我的卡
-285              國泰世華-eTag 聯名卡
-286       國泰世華-New Century MC卡
-287                 國泰世華-快樂信用卡
-288               國泰世華-華信航空聯名卡
-289                國泰世華-F1 加油卡
-290       國泰世華-Tiger City悠遊白金卡
-291                 國泰世華-大立無限卡
-292               國泰世華-全國加油聯名卡
-293               國泰世華-幸福御守御璽卡
-294                   國泰世華-紅利卡
-295                國泰世華-美華泰聯名卡
-296                 國泰世華-泰航聯名卡
-297                國泰世華-理財型白金卡
-298               國泰世華-凱撒飯店聯名卡
-299                 國泰世華-順發聯名卡
-300                 國泰世華-微風聯名卡
-301              國泰世華-農金一卡通聯名卡
-302               國泰世華-樂活悠遊御璽卡
-303              國泰世華-賴點一卡通御璽卡
-304                 國泰世華-聯邦旅遊卡
-305               國泰世華-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 第一銀行-VISA白金卡
-1              第一銀行-TeresaCard
-2             第一銀行-小小兵Bello回饋卡
-3                     第一銀行-簡單卡
-4             第一銀行-JCB一卡通聯名晶緻卡
-5                   第一銀行-白金商務卡
-6                   第一銀行-國際信用卡
-7                第一銀行-ANA晶緻聯名卡
-8                第一銀行-ANA極緻聯名卡
-9         第一銀行-Global Mall 聯名卡
-10                 第一銀行-iPlan卡
-11               第一銀行-LEXUS聯名卡
-12              第一銀行-LINE Pay卡
-13            第一銀行-MUJI無印良品聯名卡
-14       第一銀行-TAIPEI 101 夜光聯名卡
-15               第一銀行-Yahoo聯名卡
-16              第一銀行-大中華攜手飛聯名卡
-17             第一銀行-大葉高島屋百貨聯名卡
-18               第一銀行-中油VIP聯名卡
-19                第一銀行-中信兄弟聯名卡
-20                第一銀行-中信商旅鈦金卡
-21     第一銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              第一銀行-中華電信聯名白金卡
-23                  第一銀行-秀泰聯名卡
-24                  第一銀行-享想生活卡
-25              第一銀行-南紡購物中心聯名卡
-26                  第一銀行-紅利御璽卡
-27                第一銀行-現金回饋鈦金卡
-28              第一銀行-勤美天地聯名晶緻卡
-29                    第一銀行-鼎極卡
-                ...           
-276            第一銀行-北港朝天宮媽祖認同卡
-277               第一銀行-故宮之友認同卡
-278                 第一銀行-悠遊聯名卡
-279                 第一銀行-鈦金商旅卡
-280                 第一銀行-金采白金卡
-281               第一銀行-金鑽商旅白金卡
-282                 第一銀行-鈦金商旅卡
-283             第一銀行-Bankee信用卡
-284          第一銀行-C'est Moi我的卡
-285              第一銀行-eTag 聯名卡
-286       第一銀行-New Century MC卡
-287                 第一銀行-快樂信用卡
-288               第一銀行-華信航空聯名卡
-289                第一銀行-F1 加油卡
-290       第一銀行-Tiger City悠遊白金卡
-291                 第一銀行-大立無限卡
-292               第一銀行-全國加油聯名卡
-293               第一銀行-幸福御守御璽卡
-294                   第一銀行-紅利卡
-295                第一銀行-美華泰聯名卡
-296                 第一銀行-泰航聯名卡
-297                第一銀行-理財型白金卡
-298               第一銀行-凱撒飯店聯名卡
-299                 第一銀行-順發聯名卡
-300                 第一銀行-微風聯名卡
-301              第一銀行-農金一卡通聯名卡
-302               第一銀行-樂活悠遊御璽卡
-303              第一銀行-賴點一卡通御璽卡
-304                 第一銀行-聯邦旅遊卡
-305               第一銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 凱基銀行-VISA白金卡
-1              凱基銀行-TeresaCard
-2             凱基銀行-小小兵Bello回饋卡
-3                     凱基銀行-簡單卡
-4             凱基銀行-JCB一卡通聯名晶緻卡
-5                   凱基銀行-白金商務卡
-6                   凱基銀行-國際信用卡
-7                凱基銀行-ANA晶緻聯名卡
-8                凱基銀行-ANA極緻聯名卡
-9         凱基銀行-Global Mall 聯名卡
-10                 凱基銀行-iPlan卡
-11               凱基銀行-LEXUS聯名卡
-12              凱基銀行-LINE Pay卡
-13            凱基銀行-MUJI無印良品聯名卡
-14       凱基銀行-TAIPEI 101 夜光聯名卡
-15               凱基銀行-Yahoo聯名卡
-16              凱基銀行-大中華攜手飛聯名卡
-17             凱基銀行-大葉高島屋百貨聯名卡
-18               凱基銀行-中油VIP聯名卡
-19                凱基銀行-中信兄弟聯名卡
-20                凱基銀行-中信商旅鈦金卡
-21     凱基銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              凱基銀行-中華電信聯名白金卡
-23                  凱基銀行-秀泰聯名卡
-24                  凱基銀行-享想生活卡
-25              凱基銀行-南紡購物中心聯名卡
-26                  凱基銀行-紅利御璽卡
-27                凱基銀行-現金回饋鈦金卡
-28              凱基銀行-勤美天地聯名晶緻卡
-29                    凱基銀行-鼎極卡
-                ...           
-276            凱基銀行-北港朝天宮媽祖認同卡
-277               凱基銀行-故宮之友認同卡
-278                 凱基銀行-悠遊聯名卡
-279                 凱基銀行-鈦金商旅卡
-280                 凱基銀行-金采白金卡
-281               凱基銀行-金鑽商旅白金卡
-282                 凱基銀行-鈦金商旅卡
-283             凱基銀行-Bankee信用卡
-284          凱基銀行-C'est Moi我的卡
-285              凱基銀行-eTag 聯名卡
-286       凱基銀行-New Century MC卡
-287                 凱基銀行-快樂信用卡
-288               凱基銀行-華信航空聯名卡
-289                凱基銀行-F1 加油卡
-290       凱基銀行-Tiger City悠遊白金卡
-291                 凱基銀行-大立無限卡
-292               凱基銀行-全國加油聯名卡
-293               凱基銀行-幸福御守御璽卡
-294                   凱基銀行-紅利卡
-295                凱基銀行-美華泰聯名卡
-296                 凱基銀行-泰航聯名卡
-297                凱基銀行-理財型白金卡
-298               凱基銀行-凱撒飯店聯名卡
-299                 凱基銀行-順發聯名卡
-300                 凱基銀行-微風聯名卡
-301              凱基銀行-農金一卡通聯名卡
-302               凱基銀行-樂活悠遊御璽卡
-303              凱基銀行-賴點一卡通御璽卡
-304                 凱基銀行-聯邦旅遊卡
-305               凱基銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 渣打銀行-VISA白金卡
-1              渣打銀行-TeresaCard
-2             渣打銀行-小小兵Bello回饋卡
-3                     渣打銀行-簡單卡
-4             渣打銀行-JCB一卡通聯名晶緻卡
-5                   渣打銀行-白金商務卡
-6                   渣打銀行-國際信用卡
-7                渣打銀行-ANA晶緻聯名卡
-8                渣打銀行-ANA極緻聯名卡
-9         渣打銀行-Global Mall 聯名卡
-10                 渣打銀行-iPlan卡
-11               渣打銀行-LEXUS聯名卡
-12              渣打銀行-LINE Pay卡
-13            渣打銀行-MUJI無印良品聯名卡
-14       渣打銀行-TAIPEI 101 夜光聯名卡
-15               渣打銀行-Yahoo聯名卡
-16              渣打銀行-大中華攜手飛聯名卡
-17             渣打銀行-大葉高島屋百貨聯名卡
-18               渣打銀行-中油VIP聯名卡
-19                渣打銀行-中信兄弟聯名卡
-20                渣打銀行-中信商旅鈦金卡
-21     渣打銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              渣打銀行-中華電信聯名白金卡
-23                  渣打銀行-秀泰聯名卡
-24                  渣打銀行-享想生活卡
-25              渣打銀行-南紡購物中心聯名卡
-26                  渣打銀行-紅利御璽卡
-27                渣打銀行-現金回饋鈦金卡
-28              渣打銀行-勤美天地聯名晶緻卡
-29                    渣打銀行-鼎極卡
-                ...           
-276            渣打銀行-北港朝天宮媽祖認同卡
-277               渣打銀行-故宮之友認同卡
-278                 渣打銀行-悠遊聯名卡
-279                 渣打銀行-鈦金商旅卡
-280                 渣打銀行-金采白金卡
-281               渣打銀行-金鑽商旅白金卡
-282                 渣打銀行-鈦金商旅卡
-283             渣打銀行-Bankee信用卡
-284          渣打銀行-C'est Moi我的卡
-285              渣打銀行-eTag 聯名卡
-286       渣打銀行-New Century MC卡
-287                 渣打銀行-快樂信用卡
-288               渣打銀行-華信航空聯名卡
-289                渣打銀行-F1 加油卡
-290       渣打銀行-Tiger City悠遊白金卡
-291                 渣打銀行-大立無限卡
-292               渣打銀行-全國加油聯名卡
-293               渣打銀行-幸福御守御璽卡
-294                   渣打銀行-紅利卡
-295                渣打銀行-美華泰聯名卡
-296                 渣打銀行-泰航聯名卡
-297                渣打銀行-理財型白金卡
-298               渣打銀行-凱撒飯店聯名卡
-299                 渣打銀行-順發聯名卡
-300                 渣打銀行-微風聯名卡
-301              渣打銀行-農金一卡通聯名卡
-302               渣打銀行-樂活悠遊御璽卡
-303              渣打銀行-賴點一卡通御璽卡
-304                 渣打銀行-聯邦旅遊卡
-305               渣打銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 華南銀行-VISA白金卡
-1              華南銀行-TeresaCard
-2             華南銀行-小小兵Bello回饋卡
-3                     華南銀行-簡單卡
-4             華南銀行-JCB一卡通聯名晶緻卡
-5                   華南銀行-白金商務卡
-6                   華南銀行-國際信用卡
-7                華南銀行-ANA晶緻聯名卡
-8                華南銀行-ANA極緻聯名卡
-9         華南銀行-Global Mall 聯名卡
-10                 華南銀行-iPlan卡
-11               華南銀行-LEXUS聯名卡
-12              華南銀行-LINE Pay卡
-13            華南銀行-MUJI無印良品聯名卡
-14       華南銀行-TAIPEI 101 夜光聯名卡
-15               華南銀行-Yahoo聯名卡
-16              華南銀行-大中華攜手飛聯名卡
-17             華南銀行-大葉高島屋百貨聯名卡
-18               華南銀行-中油VIP聯名卡
-19                華南銀行-中信兄弟聯名卡
-20                華南銀行-中信商旅鈦金卡
-21     華南銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              華南銀行-中華電信聯名白金卡
-23                  華南銀行-秀泰聯名卡
-24                  華南銀行-享想生活卡
-25              華南銀行-南紡購物中心聯名卡
-26                  華南銀行-紅利御璽卡
-27                華南銀行-現金回饋鈦金卡
-28              華南銀行-勤美天地聯名晶緻卡
-29                    華南銀行-鼎極卡
-                ...           
-276            華南銀行-北港朝天宮媽祖認同卡
-277               華南銀行-故宮之友認同卡
-278                 華南銀行-悠遊聯名卡
-279                 華南銀行-鈦金商旅卡
-280                 華南銀行-金采白金卡
-281               華南銀行-金鑽商旅白金卡
-282                 華南銀行-鈦金商旅卡
-283             華南銀行-Bankee信用卡
-284          華南銀行-C'est Moi我的卡
-285              華南銀行-eTag 聯名卡
-286       華南銀行-New Century MC卡
-287                 華南銀行-快樂信用卡
-288               華南銀行-華信航空聯名卡
-289                華南銀行-F1 加油卡
-290       華南銀行-Tiger City悠遊白金卡
-291                 華南銀行-大立無限卡
-292               華南銀行-全國加油聯名卡
-293               華南銀行-幸福御守御璽卡
-294                   華南銀行-紅利卡
-295                華南銀行-美華泰聯名卡
-296                 華南銀行-泰航聯名卡
-297                華南銀行-理財型白金卡
-298               華南銀行-凱撒飯店聯名卡
-299                 華南銀行-順發聯名卡
-300                 華南銀行-微風聯名卡
-301              華南銀行-農金一卡通聯名卡
-302               華南銀行-樂活悠遊御璽卡
-303              華南銀行-賴點一卡通御璽卡
-304                 華南銀行-聯邦旅遊卡
-305               華南銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 華泰銀行-VISA白金卡
-1              華泰銀行-TeresaCard
-2             華泰銀行-小小兵Bello回饋卡
-3                     華泰銀行-簡單卡
-4             華泰銀行-JCB一卡通聯名晶緻卡
-5                   華泰銀行-白金商務卡
-6                   華泰銀行-國際信用卡
-7                華泰銀行-ANA晶緻聯名卡
-8                華泰銀行-ANA極緻聯名卡
-9         華泰銀行-Global Mall 聯名卡
-10                 華泰銀行-iPlan卡
-11               華泰銀行-LEXUS聯名卡
-12              華泰銀行-LINE Pay卡
-13            華泰銀行-MUJI無印良品聯名卡
-14       華泰銀行-TAIPEI 101 夜光聯名卡
-15               華泰銀行-Yahoo聯名卡
-16              華泰銀行-大中華攜手飛聯名卡
-17             華泰銀行-大葉高島屋百貨聯名卡
-18               華泰銀行-中油VIP聯名卡
-19                華泰銀行-中信兄弟聯名卡
-20                華泰銀行-中信商旅鈦金卡
-21     華泰銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              華泰銀行-中華電信聯名白金卡
-23                  華泰銀行-秀泰聯名卡
-24                  華泰銀行-享想生活卡
-25              華泰銀行-南紡購物中心聯名卡
-26                  華泰銀行-紅利御璽卡
-27                華泰銀行-現金回饋鈦金卡
-28              華泰銀行-勤美天地聯名晶緻卡
-29                    華泰銀行-鼎極卡
-                ...           
-276            華泰銀行-北港朝天宮媽祖認同卡
-277               華泰銀行-故宮之友認同卡
-278                 華泰銀行-悠遊聯名卡
-279                 華泰銀行-鈦金商旅卡
-280                 華泰銀行-金采白金卡
-281               華泰銀行-金鑽商旅白金卡
-282                 華泰銀行-鈦金商旅卡
-283             華泰銀行-Bankee信用卡
-284          華泰銀行-C'est Moi我的卡
-285              華泰銀行-eTag 聯名卡
-286       華泰銀行-New Century MC卡
-287                 華泰銀行-快樂信用卡
-288               華泰銀行-華信航空聯名卡
-289                華泰銀行-F1 加油卡
-290       華泰銀行-Tiger City悠遊白金卡
-291                 華泰銀行-大立無限卡
-292               華泰銀行-全國加油聯名卡
-293               華泰銀行-幸福御守御璽卡
-294                   華泰銀行-紅利卡
-295                華泰銀行-美華泰聯名卡
-296                 華泰銀行-泰航聯名卡
-297                華泰銀行-理財型白金卡
-298               華泰銀行-凱撒飯店聯名卡
-299                 華泰銀行-順發聯名卡
-300                 華泰銀行-微風聯名卡
-301              華泰銀行-農金一卡通聯名卡
-302               華泰銀行-樂活悠遊御璽卡
-303              華泰銀行-賴點一卡通御璽卡
-304                 華泰銀行-聯邦旅遊卡
-305               華泰銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 陽信銀行-VISA白金卡
-1              陽信銀行-TeresaCard
-2             陽信銀行-小小兵Bello回饋卡
-3                     陽信銀行-簡單卡
-4             陽信銀行-JCB一卡通聯名晶緻卡
-5                   陽信銀行-白金商務卡
-6                   陽信銀行-國際信用卡
-7                陽信銀行-ANA晶緻聯名卡
-8                陽信銀行-ANA極緻聯名卡
-9         陽信銀行-Global Mall 聯名卡
-10                 陽信銀行-iPlan卡
-11               陽信銀行-LEXUS聯名卡
-12              陽信銀行-LINE Pay卡
-13            陽信銀行-MUJI無印良品聯名卡
-14       陽信銀行-TAIPEI 101 夜光聯名卡
-15               陽信銀行-Yahoo聯名卡
-16              陽信銀行-大中華攜手飛聯名卡
-17             陽信銀行-大葉高島屋百貨聯名卡
-18               陽信銀行-中油VIP聯名卡
-19                陽信銀行-中信兄弟聯名卡
-20                陽信銀行-中信商旅鈦金卡
-21     陽信銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              陽信銀行-中華電信聯名白金卡
-23                  陽信銀行-秀泰聯名卡
-24                  陽信銀行-享想生活卡
-25              陽信銀行-南紡購物中心聯名卡
-26                  陽信銀行-紅利御璽卡
-27                陽信銀行-現金回饋鈦金卡
-28              陽信銀行-勤美天地聯名晶緻卡
-29                    陽信銀行-鼎極卡
-                ...           
-276            陽信銀行-北港朝天宮媽祖認同卡
-277               陽信銀行-故宮之友認同卡
-278                 陽信銀行-悠遊聯名卡
-279                 陽信銀行-鈦金商旅卡
-280                 陽信銀行-金采白金卡
-281               陽信銀行-金鑽商旅白金卡
-282                 陽信銀行-鈦金商旅卡
-283             陽信銀行-Bankee信用卡
-284          陽信銀行-C'est Moi我的卡
-285              陽信銀行-eTag 聯名卡
-286       陽信銀行-New Century MC卡
-287                 陽信銀行-快樂信用卡
-288               陽信銀行-華信航空聯名卡
-289                陽信銀行-F1 加油卡
-290       陽信銀行-Tiger City悠遊白金卡
-291                 陽信銀行-大立無限卡
-292               陽信銀行-全國加油聯名卡
-293               陽信銀行-幸福御守御璽卡
-294                   陽信銀行-紅利卡
-295                陽信銀行-美華泰聯名卡
-296                 陽信銀行-泰航聯名卡
-297                陽信銀行-理財型白金卡
-298               陽信銀行-凱撒飯店聯名卡
-299                 陽信銀行-順發聯名卡
-300                 陽信銀行-微風聯名卡
-301              陽信銀行-農金一卡通聯名卡
-302               陽信銀行-樂活悠遊御璽卡
-303              陽信銀行-賴點一卡通御璽卡
-304                 陽信銀行-聯邦旅遊卡
-305               陽信銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 新光銀行-VISA白金卡
-1              新光銀行-TeresaCard
-2             新光銀行-小小兵Bello回饋卡
-3                     新光銀行-簡單卡
-4             新光銀行-JCB一卡通聯名晶緻卡
-5                   新光銀行-白金商務卡
-6                   新光銀行-國際信用卡
-7                新光銀行-ANA晶緻聯名卡
-8                新光銀行-ANA極緻聯名卡
-9         新光銀行-Global Mall 聯名卡
-10                 新光銀行-iPlan卡
-11               新光銀行-LEXUS聯名卡
-12              新光銀行-LINE Pay卡
-13            新光銀行-MUJI無印良品聯名卡
-14       新光銀行-TAIPEI 101 夜光聯名卡
-15               新光銀行-Yahoo聯名卡
-16              新光銀行-大中華攜手飛聯名卡
-17             新光銀行-大葉高島屋百貨聯名卡
-18               新光銀行-中油VIP聯名卡
-19                新光銀行-中信兄弟聯名卡
-20                新光銀行-中信商旅鈦金卡
-21     新光銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              新光銀行-中華電信聯名白金卡
-23                  新光銀行-秀泰聯名卡
-24                  新光銀行-享想生活卡
-25              新光銀行-南紡購物中心聯名卡
-26                  新光銀行-紅利御璽卡
-27                新光銀行-現金回饋鈦金卡
-28              新光銀行-勤美天地聯名晶緻卡
-29                    新光銀行-鼎極卡
-                ...           
-276            新光銀行-北港朝天宮媽祖認同卡
-277               新光銀行-故宮之友認同卡
-278                 新光銀行-悠遊聯名卡
-279                 新光銀行-鈦金商旅卡
-280                 新光銀行-金采白金卡
-281               新光銀行-金鑽商旅白金卡
-282                 新光銀行-鈦金商旅卡
-283             新光銀行-Bankee信用卡
-284          新光銀行-C'est Moi我的卡
-285              新光銀行-eTag 聯名卡
-286       新光銀行-New Century MC卡
-287                 新光銀行-快樂信用卡
-288               新光銀行-華信航空聯名卡
-289                新光銀行-F1 加油卡
-290       新光銀行-Tiger City悠遊白金卡
-291                 新光銀行-大立無限卡
-292               新光銀行-全國加油聯名卡
-293               新光銀行-幸福御守御璽卡
-294                   新光銀行-紅利卡
-295                新光銀行-美華泰聯名卡
-296                 新光銀行-泰航聯名卡
-297                新光銀行-理財型白金卡
-298               新光銀行-凱撒飯店聯名卡
-299                 新光銀行-順發聯名卡
-300                 新光銀行-微風聯名卡
-301              新光銀行-農金一卡通聯名卡
-302               新光銀行-樂活悠遊御璽卡
-303              新光銀行-賴點一卡通御璽卡
-304                 新光銀行-聯邦旅遊卡
-305               新光銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 滙豐銀行-VISA白金卡
-1              滙豐銀行-TeresaCard
-2             滙豐銀行-小小兵Bello回饋卡
-3                     滙豐銀行-簡單卡
-4             滙豐銀行-JCB一卡通聯名晶緻卡
-5                   滙豐銀行-白金商務卡
-6                   滙豐銀行-國際信用卡
-7                滙豐銀行-ANA晶緻聯名卡
-8                滙豐銀行-ANA極緻聯名卡
-9         滙豐銀行-Global Mall 聯名卡
-10                 滙豐銀行-iPlan卡
-11               滙豐銀行-LEXUS聯名卡
-12              滙豐銀行-LINE Pay卡
-13            滙豐銀行-MUJI無印良品聯名卡
-14       滙豐銀行-TAIPEI 101 夜光聯名卡
-15               滙豐銀行-Yahoo聯名卡
-16              滙豐銀行-大中華攜手飛聯名卡
-17             滙豐銀行-大葉高島屋百貨聯名卡
-18               滙豐銀行-中油VIP聯名卡
-19                滙豐銀行-中信兄弟聯名卡
-20                滙豐銀行-中信商旅鈦金卡
-21     滙豐銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              滙豐銀行-中華電信聯名白金卡
-23                  滙豐銀行-秀泰聯名卡
-24                  滙豐銀行-享想生活卡
-25              滙豐銀行-南紡購物中心聯名卡
-26                  滙豐銀行-紅利御璽卡
-27                滙豐銀行-現金回饋鈦金卡
-28              滙豐銀行-勤美天地聯名晶緻卡
-29                    滙豐銀行-鼎極卡
-                ...           
-276            滙豐銀行-北港朝天宮媽祖認同卡
-277               滙豐銀行-故宮之友認同卡
-278                 滙豐銀行-悠遊聯名卡
-279                 滙豐銀行-鈦金商旅卡
-280                 滙豐銀行-金采白金卡
-281               滙豐銀行-金鑽商旅白金卡
-282                 滙豐銀行-鈦金商旅卡
-283             滙豐銀行-Bankee信用卡
-284          滙豐銀行-C'est Moi我的卡
-285              滙豐銀行-eTag 聯名卡
-286       滙豐銀行-New Century MC卡
-287                 滙豐銀行-快樂信用卡
-288               滙豐銀行-華信航空聯名卡
-289                滙豐銀行-F1 加油卡
-290       滙豐銀行-Tiger City悠遊白金卡
-291                 滙豐銀行-大立無限卡
-292               滙豐銀行-全國加油聯名卡
-293               滙豐銀行-幸福御守御璽卡
-294                   滙豐銀行-紅利卡
-295                滙豐銀行-美華泰聯名卡
-296                 滙豐銀行-泰航聯名卡
-297                滙豐銀行-理財型白金卡
-298               滙豐銀行-凱撒飯店聯名卡
-299                 滙豐銀行-順發聯名卡
-300                 滙豐銀行-微風聯名卡
-301              滙豐銀行-農金一卡通聯名卡
-302               滙豐銀行-樂活悠遊御璽卡
-303              滙豐銀行-賴點一卡通御璽卡
-304                 滙豐銀行-聯邦旅遊卡
-305               滙豐銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 彰化銀行-VISA白金卡
-1              彰化銀行-TeresaCard
-2             彰化銀行-小小兵Bello回饋卡
-3                     彰化銀行-簡單卡
-4             彰化銀行-JCB一卡通聯名晶緻卡
-5                   彰化銀行-白金商務卡
-6                   彰化銀行-國際信用卡
-7                彰化銀行-ANA晶緻聯名卡
-8                彰化銀行-ANA極緻聯名卡
-9         彰化銀行-Global Mall 聯名卡
-10                 彰化銀行-iPlan卡
-11               彰化銀行-LEXUS聯名卡
-12              彰化銀行-LINE Pay卡
-13            彰化銀行-MUJI無印良品聯名卡
-14       彰化銀行-TAIPEI 101 夜光聯名卡
-15               彰化銀行-Yahoo聯名卡
-16              彰化銀行-大中華攜手飛聯名卡
-17             彰化銀行-大葉高島屋百貨聯名卡
-18               彰化銀行-中油VIP聯名卡
-19                彰化銀行-中信兄弟聯名卡
-20                彰化銀行-中信商旅鈦金卡
-21     彰化銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              彰化銀行-中華電信聯名白金卡
-23                  彰化銀行-秀泰聯名卡
-24                  彰化銀行-享想生活卡
-25              彰化銀行-南紡購物中心聯名卡
-26                  彰化銀行-紅利御璽卡
-27                彰化銀行-現金回饋鈦金卡
-28              彰化銀行-勤美天地聯名晶緻卡
-29                    彰化銀行-鼎極卡
-                ...           
-276            彰化銀行-北港朝天宮媽祖認同卡
-277               彰化銀行-故宮之友認同卡
-278                 彰化銀行-悠遊聯名卡
-279                 彰化銀行-鈦金商旅卡
-280                 彰化銀行-金采白金卡
-281               彰化銀行-金鑽商旅白金卡
-282                 彰化銀行-鈦金商旅卡
-283             彰化銀行-Bankee信用卡
-284          彰化銀行-C'est Moi我的卡
-285              彰化銀行-eTag 聯名卡
-286       彰化銀行-New Century MC卡
-287                 彰化銀行-快樂信用卡
-288               彰化銀行-華信航空聯名卡
-289                彰化銀行-F1 加油卡
-290       彰化銀行-Tiger City悠遊白金卡
-291                 彰化銀行-大立無限卡
-292               彰化銀行-全國加油聯名卡
-293               彰化銀行-幸福御守御璽卡
-294                   彰化銀行-紅利卡
-295                彰化銀行-美華泰聯名卡
-296                 彰化銀行-泰航聯名卡
-297                彰化銀行-理財型白金卡
-298               彰化銀行-凱撒飯店聯名卡
-299                 彰化銀行-順發聯名卡
-300                 彰化銀行-微風聯名卡
-301              彰化銀行-農金一卡通聯名卡
-302               彰化銀行-樂活悠遊御璽卡
-303              彰化銀行-賴點一卡通御璽卡
-304                 彰化銀行-聯邦旅遊卡
-305               彰化銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 臺灣企銀-VISA白金卡
-1              臺灣企銀-TeresaCard
-2             臺灣企銀-小小兵Bello回饋卡
-3                     臺灣企銀-簡單卡
-4             臺灣企銀-JCB一卡通聯名晶緻卡
-5                   臺灣企銀-白金商務卡
-6                   臺灣企銀-國際信用卡
-7                臺灣企銀-ANA晶緻聯名卡
-8                臺灣企銀-ANA極緻聯名卡
-9         臺灣企銀-Global Mall 聯名卡
-10                 臺灣企銀-iPlan卡
-11               臺灣企銀-LEXUS聯名卡
-12              臺灣企銀-LINE Pay卡
-13            臺灣企銀-MUJI無印良品聯名卡
-14       臺灣企銀-TAIPEI 101 夜光聯名卡
-15               臺灣企銀-Yahoo聯名卡
-16              臺灣企銀-大中華攜手飛聯名卡
-17             臺灣企銀-大葉高島屋百貨聯名卡
-18               臺灣企銀-中油VIP聯名卡
-19                臺灣企銀-中信兄弟聯名卡
-20                臺灣企銀-中信商旅鈦金卡
-21     臺灣企銀-中國信託寰遊美國運通卡AMEX_金卡
-22              臺灣企銀-中華電信聯名白金卡
-23                  臺灣企銀-秀泰聯名卡
-24                  臺灣企銀-享想生活卡
-25              臺灣企銀-南紡購物中心聯名卡
-26                  臺灣企銀-紅利御璽卡
-27                臺灣企銀-現金回饋鈦金卡
-28              臺灣企銀-勤美天地聯名晶緻卡
-29                    臺灣企銀-鼎極卡
-                ...           
-276            臺灣企銀-北港朝天宮媽祖認同卡
-277               臺灣企銀-故宮之友認同卡
-278                 臺灣企銀-悠遊聯名卡
-279                 臺灣企銀-鈦金商旅卡
-280                 臺灣企銀-金采白金卡
-281               臺灣企銀-金鑽商旅白金卡
-282                 臺灣企銀-鈦金商旅卡
-283             臺灣企銀-Bankee信用卡
-284          臺灣企銀-C'est Moi我的卡
-285              臺灣企銀-eTag 聯名卡
-286       臺灣企銀-New Century MC卡
-287                 臺灣企銀-快樂信用卡
-288               臺灣企銀-華信航空聯名卡
-289                臺灣企銀-F1 加油卡
-290       臺灣企銀-Tiger City悠遊白金卡
-291                 臺灣企銀-大立無限卡
-292               臺灣企銀-全國加油聯名卡
-293               臺灣企銀-幸福御守御璽卡
-294                   臺灣企銀-紅利卡
-295                臺灣企銀-美華泰聯名卡
-296                 臺灣企銀-泰航聯名卡
-297                臺灣企銀-理財型白金卡
-298               臺灣企銀-凱撒飯店聯名卡
-299                 臺灣企銀-順發聯名卡
-300                 臺灣企銀-微風聯名卡
-301              臺灣企銀-農金一卡通聯名卡
-302               臺灣企銀-樂活悠遊御璽卡
-303              臺灣企銀-賴點一卡通御璽卡
-304                 臺灣企銀-聯邦旅遊卡
-305               臺灣企銀-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 臺灣銀行-VISA白金卡
-1              臺灣銀行-TeresaCard
-2             臺灣銀行-小小兵Bello回饋卡
-3                     臺灣銀行-簡單卡
-4             臺灣銀行-JCB一卡通聯名晶緻卡
-5                   臺灣銀行-白金商務卡
-6                   臺灣銀行-國際信用卡
-7                臺灣銀行-ANA晶緻聯名卡
-8                臺灣銀行-ANA極緻聯名卡
-9         臺灣銀行-Global Mall 聯名卡
-10                 臺灣銀行-iPlan卡
-11               臺灣銀行-LEXUS聯名卡
-12              臺灣銀行-LINE Pay卡
-13            臺灣銀行-MUJI無印良品聯名卡
-14       臺灣銀行-TAIPEI 101 夜光聯名卡
-15               臺灣銀行-Yahoo聯名卡
-16              臺灣銀行-大中華攜手飛聯名卡
-17             臺灣銀行-大葉高島屋百貨聯名卡
-18               臺灣銀行-中油VIP聯名卡
-19                臺灣銀行-中信兄弟聯名卡
-20                臺灣銀行-中信商旅鈦金卡
-21     臺灣銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              臺灣銀行-中華電信聯名白金卡
-23                  臺灣銀行-秀泰聯名卡
-24                  臺灣銀行-享想生活卡
-25              臺灣銀行-南紡購物中心聯名卡
-26                  臺灣銀行-紅利御璽卡
-27                臺灣銀行-現金回饋鈦金卡
-28              臺灣銀行-勤美天地聯名晶緻卡
-29                    臺灣銀行-鼎極卡
-                ...           
-276            臺灣銀行-北港朝天宮媽祖認同卡
-277               臺灣銀行-故宮之友認同卡
-278                 臺灣銀行-悠遊聯名卡
-279                 臺灣銀行-鈦金商旅卡
-280                 臺灣銀行-金采白金卡
-281               臺灣銀行-金鑽商旅白金卡
-282                 臺灣銀行-鈦金商旅卡
-283             臺灣銀行-Bankee信用卡
-284          臺灣銀行-C'est Moi我的卡
-285              臺灣銀行-eTag 聯名卡
-286       臺灣銀行-New Century MC卡
-287                 臺灣銀行-快樂信用卡
-288               臺灣銀行-華信航空聯名卡
-289                臺灣銀行-F1 加油卡
-290       臺灣銀行-Tiger City悠遊白金卡
-291                 臺灣銀行-大立無限卡
-292               臺灣銀行-全國加油聯名卡
-293               臺灣銀行-幸福御守御璽卡
-294                   臺灣銀行-紅利卡
-295                臺灣銀行-美華泰聯名卡
-296                 臺灣銀行-泰航聯名卡
-297                臺灣銀行-理財型白金卡
-298               臺灣銀行-凱撒飯店聯名卡
-299                 臺灣銀行-順發聯名卡
-300                 臺灣銀行-微風聯名卡
-301              臺灣銀行-農金一卡通聯名卡
-302               臺灣銀行-樂活悠遊御璽卡
-303              臺灣銀行-賴點一卡通御璽卡
-304                 臺灣銀行-聯邦旅遊卡
-305               臺灣銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 遠東商銀-VISA白金卡
-1              遠東商銀-TeresaCard
-2             遠東商銀-小小兵Bello回饋卡
-3                     遠東商銀-簡單卡
-4             遠東商銀-JCB一卡通聯名晶緻卡
-5                   遠東商銀-白金商務卡
-6                   遠東商銀-國際信用卡
-7                遠東商銀-ANA晶緻聯名卡
-8                遠東商銀-ANA極緻聯名卡
-9         遠東商銀-Global Mall 聯名卡
-10                 遠東商銀-iPlan卡
-11               遠東商銀-LEXUS聯名卡
-12              遠東商銀-LINE Pay卡
-13            遠東商銀-MUJI無印良品聯名卡
-14       遠東商銀-TAIPEI 101 夜光聯名卡
-15               遠東商銀-Yahoo聯名卡
-16              遠東商銀-大中華攜手飛聯名卡
-17             遠東商銀-大葉高島屋百貨聯名卡
-18               遠東商銀-中油VIP聯名卡
-19                遠東商銀-中信兄弟聯名卡
-20                遠東商銀-中信商旅鈦金卡
-21     遠東商銀-中國信託寰遊美國運通卡AMEX_金卡
-22              遠東商銀-中華電信聯名白金卡
-23                  遠東商銀-秀泰聯名卡
-24                  遠東商銀-享想生活卡
-25              遠東商銀-南紡購物中心聯名卡
-26                  遠東商銀-紅利御璽卡
-27                遠東商銀-現金回饋鈦金卡
-28              遠東商銀-勤美天地聯名晶緻卡
-29                    遠東商銀-鼎極卡
-                ...           
-276            遠東商銀-北港朝天宮媽祖認同卡
-277               遠東商銀-故宮之友認同卡
-278                 遠東商銀-悠遊聯名卡
-279                 遠東商銀-鈦金商旅卡
-280                 遠東商銀-金采白金卡
-281               遠東商銀-金鑽商旅白金卡
-282                 遠東商銀-鈦金商旅卡
-283             遠東商銀-Bankee信用卡
-284          遠東商銀-C'est Moi我的卡
-285              遠東商銀-eTag 聯名卡
-286       遠東商銀-New Century MC卡
-287                 遠東商銀-快樂信用卡
-288               遠東商銀-華信航空聯名卡
-289                遠東商銀-F1 加油卡
-290       遠東商銀-Tiger City悠遊白金卡
-291                 遠東商銀-大立無限卡
-292               遠東商銀-全國加油聯名卡
-293               遠東商銀-幸福御守御璽卡
-294                   遠東商銀-紅利卡
-295                遠東商銀-美華泰聯名卡
-296                 遠東商銀-泰航聯名卡
-297                遠東商銀-理財型白金卡
-298               遠東商銀-凱撒飯店聯名卡
-299                 遠東商銀-順發聯名卡
-300                 遠東商銀-微風聯名卡
-301              遠東商銀-農金一卡通聯名卡
-302               遠東商銀-樂活悠遊御璽卡
-303              遠東商銀-賴點一卡通御璽卡
-304                 遠東商銀-聯邦旅遊卡
-305               遠東商銀-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
-  </si>
-  <si>
-    <t>0                 聯邦銀行-VISA白金卡
-1              聯邦銀行-TeresaCard
-2             聯邦銀行-小小兵Bello回饋卡
-3                     聯邦銀行-簡單卡
-4             聯邦銀行-JCB一卡通聯名晶緻卡
-5                   聯邦銀行-白金商務卡
-6                   聯邦銀行-國際信用卡
-7                聯邦銀行-ANA晶緻聯名卡
-8                聯邦銀行-ANA極緻聯名卡
-9         聯邦銀行-Global Mall 聯名卡
-10                 聯邦銀行-iPlan卡
-11               聯邦銀行-LEXUS聯名卡
-12              聯邦銀行-LINE Pay卡
-13            聯邦銀行-MUJI無印良品聯名卡
-14       聯邦銀行-TAIPEI 101 夜光聯名卡
-15               聯邦銀行-Yahoo聯名卡
-16              聯邦銀行-大中華攜手飛聯名卡
-17             聯邦銀行-大葉高島屋百貨聯名卡
-18               聯邦銀行-中油VIP聯名卡
-19                聯邦銀行-中信兄弟聯名卡
-20                聯邦銀行-中信商旅鈦金卡
-21     聯邦銀行-中國信託寰遊美國運通卡AMEX_金卡
-22              聯邦銀行-中華電信聯名白金卡
-23                  聯邦銀行-秀泰聯名卡
-24                  聯邦銀行-享想生活卡
-25              聯邦銀行-南紡購物中心聯名卡
-26                  聯邦銀行-紅利御璽卡
-27                聯邦銀行-現金回饋鈦金卡
-28              聯邦銀行-勤美天地聯名晶緻卡
-29                    聯邦銀行-鼎極卡
-                ...           
-276            聯邦銀行-北港朝天宮媽祖認同卡
-277               聯邦銀行-故宮之友認同卡
-278                 聯邦銀行-悠遊聯名卡
-279                 聯邦銀行-鈦金商旅卡
-280                 聯邦銀行-金采白金卡
-281               聯邦銀行-金鑽商旅白金卡
-282                 聯邦銀行-鈦金商旅卡
-283             聯邦銀行-Bankee信用卡
-284          聯邦銀行-C'est Moi我的卡
-285              聯邦銀行-eTag 聯名卡
-286       聯邦銀行-New Century MC卡
-287                 聯邦銀行-快樂信用卡
-288               聯邦銀行-華信航空聯名卡
-289                聯邦銀行-F1 加油卡
-290       聯邦銀行-Tiger City悠遊白金卡
-291                 聯邦銀行-大立無限卡
-292               聯邦銀行-全國加油聯名卡
-293               聯邦銀行-幸福御守御璽卡
-294                   聯邦銀行-紅利卡
-295                聯邦銀行-美華泰聯名卡
-296                 聯邦銀行-泰航聯名卡
-297                聯邦銀行-理財型白金卡
-298               聯邦銀行-凱撒飯店聯名卡
-299                 聯邦銀行-順發聯名卡
-300                 聯邦銀行-微風聯名卡
-301              聯邦銀行-農金一卡通聯名卡
-302               聯邦銀行-樂活悠遊御璽卡
-303              聯邦銀行-賴點一卡通御璽卡
-304                 聯邦銀行-聯邦旅遊卡
-305               聯邦銀行-聯邦銀行世界卡
-Name: 卡名, Length: 306, dtype: object</t>
+    <t>三信銀行-VISA白金卡</t>
+  </si>
+  <si>
+    <t>上海商銀-TeresaCard</t>
+  </si>
+  <si>
+    <t>上海商銀-小小兵Bello回饋卡</t>
+  </si>
+  <si>
+    <t>上海商銀-簡單卡</t>
+  </si>
+  <si>
+    <t>土地銀行-JCB一卡通聯名晶緻卡</t>
+  </si>
+  <si>
+    <t>土地銀行-白金商務卡</t>
+  </si>
+  <si>
+    <t>土地銀行-國際信用卡</t>
+  </si>
+  <si>
+    <t>中國信託-ANA晶緻聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-ANA極緻聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-Global Mall 聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-iPlan卡</t>
+  </si>
+  <si>
+    <t>中國信託-LEXUS聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-LINE Pay卡</t>
+  </si>
+  <si>
+    <t>中國信託-MUJI無印良品聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-TAIPEI 101 夜光聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-Yahoo聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-大中華攜手飛聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-大葉高島屋百貨聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-中油VIP聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-中信兄弟聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-中信商旅鈦金卡</t>
+  </si>
+  <si>
+    <t>中國信託-中國信託寰遊美國運通卡AMEX_金卡</t>
+  </si>
+  <si>
+    <t>中國信託-中華電信聯名白金卡</t>
+  </si>
+  <si>
+    <t>中國信託-秀泰聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-享想生活卡</t>
+  </si>
+  <si>
+    <t>中國信託-南紡購物中心聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-紅利御璽卡</t>
+  </si>
+  <si>
+    <t>中國信託-現金回饋鈦金卡</t>
+  </si>
+  <si>
+    <t>中國信託-勤美天地聯名晶緻卡</t>
+  </si>
+  <si>
+    <t>中國信託-鼎極卡</t>
+  </si>
+  <si>
+    <t>中國信託-漢神百貨聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-酷玩卡</t>
+  </si>
+  <si>
+    <t>中國信託-寰遊美國運通卡</t>
+  </si>
+  <si>
+    <t>中國信託-雙幣商務卡</t>
+  </si>
+  <si>
+    <t>中國信託-蘭城新月廣場聯名卡</t>
+  </si>
+  <si>
+    <t>元大銀行-iCash樂享晶緻卡</t>
+  </si>
+  <si>
+    <t>元大銀行-iPASS現賺御璽卡</t>
+  </si>
+  <si>
+    <t>元大銀行-Life卡</t>
+  </si>
+  <si>
+    <t>元大銀行-Wi-Ho!Online聯名卡</t>
+  </si>
+  <si>
+    <t>元大銀行-一番卡</t>
+  </si>
+  <si>
+    <t>元大銀行-元大Life卡JCB晶緻卡</t>
+  </si>
+  <si>
+    <t>元大銀行-分享卡</t>
+  </si>
+  <si>
+    <t>元大銀行-世界卡</t>
+  </si>
+  <si>
+    <t>元大銀行-指定卡</t>
+  </si>
+  <si>
+    <t>元大銀行-富貴無限卡</t>
+  </si>
+  <si>
+    <t>元大銀行-愛PASS鈦金卡</t>
+  </si>
+  <si>
+    <t>元大銀行-新世代卡</t>
+  </si>
+  <si>
+    <t>元大銀行-樂遊卡</t>
+  </si>
+  <si>
+    <t>元大銀行-藝術白金卡</t>
+  </si>
+  <si>
+    <t>元大銀行-鑽金 icash 聯名卡</t>
+  </si>
+  <si>
+    <t>元大銀行-鑽金一卡通聯名卡</t>
+  </si>
+  <si>
+    <t>元大銀行-鑽金卡</t>
+  </si>
+  <si>
+    <t>日盛銀行-ALL PASS卡</t>
+  </si>
+  <si>
+    <t>日盛銀行-GOGO卡</t>
+  </si>
+  <si>
+    <t>日盛銀行-無限卡</t>
+  </si>
+  <si>
+    <t>王道銀行-cama café聯名卡</t>
+  </si>
+  <si>
+    <t>王道銀行-FunNow聯名卡</t>
+  </si>
+  <si>
+    <t>王道銀行-公益認同卡</t>
+  </si>
+  <si>
+    <t>王道銀行-簽帳金融卡</t>
+  </si>
+  <si>
+    <t>台中商銀-JCB哆啦A夢晶緻卡</t>
+  </si>
+  <si>
+    <t>台中商銀-媽祖白金卡</t>
+  </si>
+  <si>
+    <t>台北富邦-DHC聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-IMPERIAL尊御世界卡</t>
+  </si>
+  <si>
+    <t>台北富邦-J卡</t>
+  </si>
+  <si>
+    <t>台北富邦-台茂聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-台灣大哥大悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-采盟聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-財神卡</t>
+  </si>
+  <si>
+    <t>台北富邦-商務卡</t>
+  </si>
+  <si>
+    <t>台北富邦-國賓大飯店聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-富利生活系列卡</t>
+  </si>
+  <si>
+    <t>台北富邦-富邦悍將悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-福華聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-廣三SOGO聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-數位生活卡</t>
+  </si>
+  <si>
+    <t>台北富邦-麗嬰房聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-鑽保卡</t>
+  </si>
+  <si>
+    <t>台新銀行-@GoGo iCash御璽卡</t>
+  </si>
+  <si>
+    <t>台新銀行-ETC聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-FlyGo卡</t>
+  </si>
+  <si>
+    <t>台新銀行-PayEasy聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-三商美邦人壽聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-大潤發/大買家聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-太陽卡</t>
+  </si>
+  <si>
+    <t>台新銀行-台新財富無限卡</t>
+  </si>
+  <si>
+    <t>台新銀行-台新街口聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-全家Fish悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-亞洲無限卡</t>
+  </si>
+  <si>
+    <t>台新銀行-幸福加值卡</t>
+  </si>
+  <si>
+    <t>台新銀行-昇恆昌聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-玫瑰卡</t>
+  </si>
+  <si>
+    <t>台新銀行-商務卡</t>
+  </si>
+  <si>
+    <t>台新銀行-國泰航空世界卡</t>
+  </si>
+  <si>
+    <t>台新銀行-國泰航空鈦金卡</t>
+  </si>
+  <si>
+    <t>台新銀行-國泰航空翱翔鈦金卡</t>
+  </si>
+  <si>
+    <t>台新銀行-賓士smart聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-遠傳friDay聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-燦坤生活聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-環球無限卡</t>
+  </si>
+  <si>
+    <t>台新銀行-雙幣卡</t>
+  </si>
+  <si>
+    <t>台灣樂天-樂天信用卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-DAWHO現金回饋信用卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-Me Card</t>
+  </si>
+  <si>
+    <t>永豐銀行-MITSUI OUTLET PARK卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-Prestige美國運通卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-SPORT卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-VOGUE聯名卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-保倍卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-科士威聯名卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-美麗華卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-悠遊HiCard</t>
+  </si>
+  <si>
+    <t>永豐銀行-現金回饋卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-無限卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-鈦豐卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-夢行卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-雙幣卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-Debit金融卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-ATT 4 Fun 悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-eTag悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-iCash聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-NISSAN悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-Pi 拍錢包信用卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-U Bear信用卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-山隆優油卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-中友百貨悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-公務人員國民旅遊卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-弘安藥粧聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-玉山Only卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-玉山世界卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-全國電子聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-佐登妮絲聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-幸運PLUS鈦金卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-幸運鈦金卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-南山悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-耐斯廣場NP聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-家樂福icash聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-家樂福悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-啄木鳥悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-商務御璽卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-統一時代icash聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-統領百貨悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-華歌爾悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-賀寶芙悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-愛心卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-新東陽悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-漢神巨蛋聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-臺北南山廣場聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-雙幣信用卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-麗寶悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-寶雅悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-e秒刷鈦金卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-Gogoro 聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-Mega One 一卡通聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-中興保全聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-世界卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-生活工場聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-利多御璽商旅卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-幸福卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-原子小金剛卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-統一7-ELEVEn獅聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-歐付寶悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>合作金庫-icash聯名卡MasterCard鈦金卡</t>
+  </si>
+  <si>
+    <t>合作金庫-JCB悠遊晶緻卡</t>
+  </si>
+  <si>
+    <t>合作金庫-卡娜赫拉的小動物 icash 聯名卡</t>
+  </si>
+  <si>
+    <t>合作金庫-合作金庫世界卡</t>
+  </si>
+  <si>
+    <t>合作金庫-合庫無限卡</t>
+  </si>
+  <si>
+    <t>合作金庫-利high卡</t>
+  </si>
+  <si>
+    <t>合作金庫-漢來美食聯名卡</t>
+  </si>
+  <si>
+    <t>合作金庫-雙幣卡</t>
+  </si>
+  <si>
+    <t>合作金庫-天后宮認同卡</t>
+  </si>
+  <si>
+    <t>安泰銀行-分期卡</t>
+  </si>
+  <si>
+    <t>安泰銀行-晶緻卡</t>
+  </si>
+  <si>
+    <t>安泰銀行-鈦金卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-Apple Pay</t>
+  </si>
+  <si>
+    <t>花旗銀行-Citi Prestige</t>
+  </si>
+  <si>
+    <t>花旗銀行-PChome Prime聯名卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-紅利悠遊卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-現金回饋PLUS卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-新世代花旗饗樂生活悠遊卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-寰旅世界悠遊卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-寰旅尊尚世界悠遊卡</t>
+  </si>
+  <si>
+    <t>星展銀行-everyday鈦金卡</t>
+  </si>
+  <si>
+    <t>星展銀行-炫晶御璽卡</t>
+  </si>
+  <si>
+    <t>星展銀行-飛行世界卡</t>
+  </si>
+  <si>
+    <t>星展銀行-飛行鈦金卡</t>
+  </si>
+  <si>
+    <t>美國運通-長榮航空簽帳白金卡</t>
+  </si>
+  <si>
+    <t>美國運通-長榮航空簽帳金卡</t>
+  </si>
+  <si>
+    <t>美國運通-信用白金卡</t>
+  </si>
+  <si>
+    <t>美國運通-信用金卡</t>
+  </si>
+  <si>
+    <t>美國運通-國泰航空信用卡</t>
+  </si>
+  <si>
+    <t>美國運通-國泰航空尊尚信用卡</t>
+  </si>
+  <si>
+    <t>美國運通-新加坡航空天宇信用卡</t>
+  </si>
+  <si>
+    <t>美國運通-簽帳卡</t>
+  </si>
+  <si>
+    <t>美國運通-簽帳金卡</t>
+  </si>
+  <si>
+    <t>高雄銀行-高雄going鈦金卡</t>
+  </si>
+  <si>
+    <t>國泰世華-COSTCO聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-KOKO COMBO icash聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-世界卡</t>
+  </si>
+  <si>
+    <t>國泰世華-台塑聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-白金卡</t>
+  </si>
+  <si>
+    <t>國泰世華-亞洲萬里通聯名世界卡</t>
+  </si>
+  <si>
+    <t>國泰世華-亞洲萬里通聯名白金卡</t>
+  </si>
+  <si>
+    <t>國泰世華-亞洲萬里通聯名里享卡</t>
+  </si>
+  <si>
+    <t>國泰世華-亞洲萬里通聯名鈦商卡</t>
+  </si>
+  <si>
+    <t>國泰世華-享購鈦金卡</t>
+  </si>
+  <si>
+    <t>國泰世華-長榮聯名御璽卡</t>
+  </si>
+  <si>
+    <t>國泰世華-長榮聯名無限卡</t>
+  </si>
+  <si>
+    <t>國泰世華-長榮聯名極致御璽卡</t>
+  </si>
+  <si>
+    <t>國泰世華-長榮聯名極致無限卡</t>
+  </si>
+  <si>
+    <t>國泰世華-國泰人壽聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-現金回饋御璽卡</t>
+  </si>
+  <si>
+    <t>國泰世華-尊榮御璽卡</t>
+  </si>
+  <si>
+    <t>國泰世華-鈦金商務卡</t>
+  </si>
+  <si>
+    <t>國泰世華-遠東SOGO悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-蝦皮購物聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-雙幣卡</t>
+  </si>
+  <si>
+    <t>第一銀行-icash聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-i-Fun愛玩樂卡</t>
+  </si>
+  <si>
+    <t>第一銀行-Living Green綠活卡</t>
+  </si>
+  <si>
+    <t>第一銀行-Smile速邁樂聯名卡VISA白金卡</t>
+  </si>
+  <si>
+    <t>第一銀行-Wonderful星璨卡</t>
+  </si>
+  <si>
+    <t>第一銀行-一卡通聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-大同寶寶聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-由你分期卡</t>
+  </si>
+  <si>
+    <t>第一銀行-悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-曼黛瑪璉聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-速邁樂聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-媚儷鈦金卡</t>
+  </si>
+  <si>
+    <t>第一銀行-尊榮白金卡</t>
+  </si>
+  <si>
+    <t>第一銀行-菁英御璽卡</t>
+  </si>
+  <si>
+    <t>第一銀行-資生堂SHISEIDO聯名卡</t>
+  </si>
+  <si>
+    <t>凱基銀行-中壽聯名卡</t>
+  </si>
+  <si>
+    <t>凱基銀行-現金回饋御璽卡</t>
+  </si>
+  <si>
+    <t>凱基銀行-現金回饋鈦金卡</t>
+  </si>
+  <si>
+    <t>凱基銀行-無限卡</t>
+  </si>
+  <si>
+    <t>凱基銀行-魔fun悠遊御璽卡</t>
+  </si>
+  <si>
+    <t>渣打銀行-TheShoppingCard分期卡</t>
+  </si>
+  <si>
+    <t>渣打銀行-昇利卡(紅利回饋)</t>
+  </si>
+  <si>
+    <t>渣打銀行-昇利卡(現金回饋)</t>
+  </si>
+  <si>
+    <t>渣打銀行-現金回饋御璽卡</t>
+  </si>
+  <si>
+    <t>渣打銀行-優先理財VISA無限卡</t>
+  </si>
+  <si>
+    <t>渣打銀行-優先理財無限卡</t>
+  </si>
+  <si>
+    <t>華南銀行-Combo Life 卡</t>
+  </si>
+  <si>
+    <t>華南銀行-i網購生活卡</t>
+  </si>
+  <si>
+    <t>華南銀行-LOVE晶緻悠遊聯名卡－酷愛黑卡</t>
+  </si>
+  <si>
+    <t>華南銀行-LOVE晶緻悠遊聯名卡－寵愛紅卡</t>
+  </si>
+  <si>
+    <t>華南銀行-OPENPOINT超級點數聯名卡-Hello Kitty款</t>
+  </si>
+  <si>
+    <t>華南銀行-Scottish House 聯名卡</t>
+  </si>
+  <si>
+    <t>華南銀行-The ONE 尊榮無限卡</t>
+  </si>
+  <si>
+    <t>華南銀行-大甲媽祖認同卡</t>
+  </si>
+  <si>
+    <t>華南銀行-享利樂活Combo卡</t>
+  </si>
+  <si>
+    <t>華南銀行-美饌紅利卡</t>
+  </si>
+  <si>
+    <t>華南銀行-旅鑽商務御璽卡</t>
+  </si>
+  <si>
+    <t>華南銀行-超級現金回饋卡</t>
+  </si>
+  <si>
+    <t>華南銀行-優活YOHO晶緻卡</t>
+  </si>
+  <si>
+    <t>華南銀行-櫃買贏家生活卡</t>
+  </si>
+  <si>
+    <t>華泰銀行-VISA旗艦卡</t>
+  </si>
+  <si>
+    <t>陽信銀行-一卡通聯名鈦金卡</t>
+  </si>
+  <si>
+    <t>陽信銀行-享利白金卡</t>
+  </si>
+  <si>
+    <t>陽信銀行-曜晶卡</t>
+  </si>
+  <si>
+    <t>新光銀行-Lamigo信用卡</t>
+  </si>
+  <si>
+    <t>新光銀行-分期7卡</t>
+  </si>
+  <si>
+    <t>新光銀行-日本航空聯名卡</t>
+  </si>
+  <si>
+    <t>新光銀行-美麗華百樂卡</t>
+  </si>
+  <si>
+    <t>新光銀行-新光三越聯名卡</t>
+  </si>
+  <si>
+    <t>新光銀行-新光加油卡</t>
+  </si>
+  <si>
+    <t>新光銀行-義大世界聯名卡</t>
+  </si>
+  <si>
+    <t>新光銀行-寰宇現金回饋卡</t>
+  </si>
+  <si>
+    <t>新光銀行-魔法少女一卡通鈦金卡</t>
+  </si>
+  <si>
+    <t>滙豐銀行-中華航空聯名卡</t>
+  </si>
+  <si>
+    <t>滙豐銀行-現金回饋御璽卡</t>
+  </si>
+  <si>
+    <t>彰化銀行-JCB悠遊晶緻卡</t>
+  </si>
+  <si>
+    <t>彰化銀行-My樂現金回饋卡</t>
+  </si>
+  <si>
+    <t>彰化銀行-VISA一卡通御璽卡</t>
+  </si>
+  <si>
+    <t>彰化銀行-VISA無限卡</t>
+  </si>
+  <si>
+    <t>彰化銀行-商旅御璽卡</t>
+  </si>
+  <si>
+    <t>臺灣企銀-北港朝天宮媽祖認同卡</t>
+  </si>
+  <si>
+    <t>臺灣企銀-故宮之友認同卡</t>
+  </si>
+  <si>
+    <t>臺灣企銀-悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>臺灣企銀-鈦金商旅卡</t>
+  </si>
+  <si>
+    <t>臺灣銀行-金采白金卡</t>
+  </si>
+  <si>
+    <t>臺灣銀行-金鑽商旅白金卡</t>
+  </si>
+  <si>
+    <t>臺灣銀行-鈦金商旅卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-Bankee信用卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-C'est Moi我的卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-eTag 聯名卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-New Century MC卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-快樂信用卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-華信航空聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-F1 加油卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-Tiger City悠遊白金卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-大立無限卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-全國加油聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-幸福御守御璽卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-紅利卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-美華泰聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-泰航聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-理財型白金卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-凱撒飯店聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-順發聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-微風聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-農金一卡通聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-樂活悠遊御璽卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-賴點一卡通御璽卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-聯邦旅遊卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-聯邦銀行世界卡</t>
   </si>
 </sst>
 </file>
@@ -5940,7 +4682,7 @@
         <v>681</v>
       </c>
       <c r="P4" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5969,7 +4711,7 @@
         <v>847</v>
       </c>
       <c r="P5" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5995,7 +4737,7 @@
         <v>727</v>
       </c>
       <c r="P6" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6021,7 +4763,7 @@
         <v>848</v>
       </c>
       <c r="P7" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -6041,7 +4783,7 @@
         <v>522</v>
       </c>
       <c r="P8" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -6073,7 +4815,7 @@
         <v>1064</v>
       </c>
       <c r="P9" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -6105,7 +4847,7 @@
         <v>1065</v>
       </c>
       <c r="P10" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -6125,7 +4867,7 @@
         <v>941</v>
       </c>
       <c r="P11" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -6142,7 +4884,7 @@
         <v>730</v>
       </c>
       <c r="P12" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -6180,7 +4922,7 @@
         <v>1035</v>
       </c>
       <c r="P13" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -6203,7 +4945,7 @@
         <v>943</v>
       </c>
       <c r="P14" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6226,7 +4968,7 @@
         <v>944</v>
       </c>
       <c r="P15" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6258,7 +5000,7 @@
         <v>945</v>
       </c>
       <c r="P16" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -6278,7 +5020,7 @@
         <v>735</v>
       </c>
       <c r="P17" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -6307,7 +5049,7 @@
         <v>1066</v>
       </c>
       <c r="P18" t="s">
-        <v>1088</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -6339,7 +5081,7 @@
         <v>945</v>
       </c>
       <c r="P19" t="s">
-        <v>1088</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -6362,7 +5104,7 @@
         <v>1036</v>
       </c>
       <c r="P20" t="s">
-        <v>1088</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -6391,7 +5133,7 @@
         <v>947</v>
       </c>
       <c r="P21" t="s">
-        <v>1088</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -6408,7 +5150,7 @@
         <v>348</v>
       </c>
       <c r="P22" t="s">
-        <v>1088</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -6425,7 +5167,7 @@
         <v>349</v>
       </c>
       <c r="P23" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -6448,7 +5190,7 @@
         <v>1037</v>
       </c>
       <c r="P24" t="s">
-        <v>1088</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -6468,7 +5210,7 @@
         <v>949</v>
       </c>
       <c r="P25" t="s">
-        <v>1088</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -6491,7 +5233,7 @@
         <v>1038</v>
       </c>
       <c r="P26" t="s">
-        <v>1088</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -6526,7 +5268,7 @@
         <v>945</v>
       </c>
       <c r="P27" t="s">
-        <v>1088</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -6543,7 +5285,7 @@
         <v>951</v>
       </c>
       <c r="P28" t="s">
-        <v>1088</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -6560,7 +5302,7 @@
         <v>478</v>
       </c>
       <c r="P29" t="s">
-        <v>1088</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -6595,7 +5337,7 @@
         <v>952</v>
       </c>
       <c r="P30" t="s">
-        <v>1088</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -6630,7 +5372,7 @@
         <v>896</v>
       </c>
       <c r="P31" t="s">
-        <v>1088</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -6650,7 +5392,7 @@
         <v>953</v>
       </c>
       <c r="P32" t="s">
-        <v>1088</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -6670,7 +5412,7 @@
         <v>954</v>
       </c>
       <c r="P33" t="s">
-        <v>1088</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -6687,7 +5429,7 @@
         <v>349</v>
       </c>
       <c r="P34" t="s">
-        <v>1088</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -6719,7 +5461,7 @@
         <v>896</v>
       </c>
       <c r="P35" t="s">
-        <v>1088</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -6739,7 +5481,7 @@
         <v>955</v>
       </c>
       <c r="P36" t="s">
-        <v>1088</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -6765,7 +5507,7 @@
         <v>897</v>
       </c>
       <c r="P37" t="s">
-        <v>1089</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -6782,7 +5524,7 @@
         <v>353</v>
       </c>
       <c r="P38" t="s">
-        <v>1089</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -6817,7 +5559,7 @@
         <v>956</v>
       </c>
       <c r="P39" t="s">
-        <v>1089</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -6849,7 +5591,7 @@
         <v>897</v>
       </c>
       <c r="P40" t="s">
-        <v>1089</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -6878,7 +5620,7 @@
         <v>957</v>
       </c>
       <c r="P41" t="s">
-        <v>1089</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -6913,7 +5655,7 @@
         <v>956</v>
       </c>
       <c r="P42" t="s">
-        <v>1089</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -6936,7 +5678,7 @@
         <v>627</v>
       </c>
       <c r="P43" t="s">
-        <v>1089</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -6962,7 +5704,7 @@
         <v>898</v>
       </c>
       <c r="P44" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -6976,7 +5718,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>1089</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -7014,7 +5756,7 @@
         <v>1067</v>
       </c>
       <c r="P46" t="s">
-        <v>1089</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -7046,7 +5788,7 @@
         <v>897</v>
       </c>
       <c r="P47" t="s">
-        <v>1089</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -7066,7 +5808,7 @@
         <v>527</v>
       </c>
       <c r="P48" t="s">
-        <v>1089</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -7095,7 +5837,7 @@
         <v>897</v>
       </c>
       <c r="P49" t="s">
-        <v>1089</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -7124,7 +5866,7 @@
         <v>897</v>
       </c>
       <c r="P50" t="s">
-        <v>1089</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -7153,7 +5895,7 @@
         <v>897</v>
       </c>
       <c r="P51" t="s">
-        <v>1089</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -7182,7 +5924,7 @@
         <v>897</v>
       </c>
       <c r="P52" t="s">
-        <v>1089</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -7211,7 +5953,7 @@
         <v>897</v>
       </c>
       <c r="P53" t="s">
-        <v>1089</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -7243,7 +5985,7 @@
         <v>899</v>
       </c>
       <c r="P54" t="s">
-        <v>1090</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -7278,7 +6020,7 @@
         <v>958</v>
       </c>
       <c r="P55" t="s">
-        <v>1090</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -7313,7 +6055,7 @@
         <v>899</v>
       </c>
       <c r="P56" t="s">
-        <v>1090</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -7327,7 +6069,7 @@
         <v>104</v>
       </c>
       <c r="P57" t="s">
-        <v>1091</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -7341,7 +6083,7 @@
         <v>105</v>
       </c>
       <c r="P58" t="s">
-        <v>1091</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -7355,7 +6097,7 @@
         <v>106</v>
       </c>
       <c r="P59" t="s">
-        <v>1091</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -7369,7 +6111,7 @@
         <v>107</v>
       </c>
       <c r="P60" t="s">
-        <v>1091</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -7395,7 +6137,7 @@
         <v>900</v>
       </c>
       <c r="P61" t="s">
-        <v>1092</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -7424,7 +6166,7 @@
         <v>959</v>
       </c>
       <c r="P62" t="s">
-        <v>1092</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -7453,7 +6195,7 @@
         <v>960</v>
       </c>
       <c r="P63" t="s">
-        <v>1093</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -7488,7 +6230,7 @@
         <v>901</v>
       </c>
       <c r="P64" t="s">
-        <v>1093</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -7520,7 +6262,7 @@
         <v>902</v>
       </c>
       <c r="P65" t="s">
-        <v>1093</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -7549,7 +6291,7 @@
         <v>903</v>
       </c>
       <c r="P66" t="s">
-        <v>1093</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -7569,7 +6311,7 @@
         <v>534</v>
       </c>
       <c r="P67" t="s">
-        <v>1093</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -7601,7 +6343,7 @@
         <v>961</v>
       </c>
       <c r="P68" t="s">
-        <v>1093</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -7627,7 +6369,7 @@
         <v>691</v>
       </c>
       <c r="P69" t="s">
-        <v>1093</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -7662,7 +6404,7 @@
         <v>1068</v>
       </c>
       <c r="P70" t="s">
-        <v>1093</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -7691,7 +6433,7 @@
         <v>960</v>
       </c>
       <c r="P71" t="s">
-        <v>1093</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -7717,7 +6459,7 @@
         <v>962</v>
       </c>
       <c r="P72" t="s">
-        <v>1093</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -7749,7 +6491,7 @@
         <v>960</v>
       </c>
       <c r="P73" t="s">
-        <v>1093</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -7781,7 +6523,7 @@
         <v>963</v>
       </c>
       <c r="P74" t="s">
-        <v>1093</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -7816,7 +6558,7 @@
         <v>1039</v>
       </c>
       <c r="P75" t="s">
-        <v>1093</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -7842,7 +6584,7 @@
         <v>689</v>
       </c>
       <c r="P76" t="s">
-        <v>1093</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -7871,7 +6613,7 @@
         <v>964</v>
       </c>
       <c r="P77" t="s">
-        <v>1093</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -7897,7 +6639,7 @@
         <v>691</v>
       </c>
       <c r="P78" t="s">
-        <v>1093</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -7920,7 +6662,7 @@
         <v>756</v>
       </c>
       <c r="P79" t="s">
-        <v>1094</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -7949,7 +6691,7 @@
         <v>965</v>
       </c>
       <c r="P80" t="s">
-        <v>1094</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -7975,7 +6717,7 @@
         <v>859</v>
       </c>
       <c r="P81" t="s">
-        <v>1094</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -7989,7 +6731,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>1094</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -8018,7 +6760,7 @@
         <v>906</v>
       </c>
       <c r="P83" t="s">
-        <v>1094</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -8056,7 +6798,7 @@
         <v>1040</v>
       </c>
       <c r="P84" t="s">
-        <v>1094</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -8094,7 +6836,7 @@
         <v>1039</v>
       </c>
       <c r="P85" t="s">
-        <v>1094</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -8126,7 +6868,7 @@
         <v>907</v>
       </c>
       <c r="P86" t="s">
-        <v>1094</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -8140,7 +6882,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>1094</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -8166,7 +6908,7 @@
         <v>1039</v>
       </c>
       <c r="P88" t="s">
-        <v>1094</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -8201,7 +6943,7 @@
         <v>967</v>
       </c>
       <c r="P89" t="s">
-        <v>1094</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -8230,7 +6972,7 @@
         <v>1039</v>
       </c>
       <c r="P90" t="s">
-        <v>1094</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -8271,7 +7013,7 @@
         <v>910</v>
       </c>
       <c r="P91" t="s">
-        <v>1094</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -8312,7 +7054,7 @@
         <v>1039</v>
       </c>
       <c r="P92" t="s">
-        <v>1094</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -8344,7 +7086,7 @@
         <v>911</v>
       </c>
       <c r="P93" t="s">
-        <v>1094</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -8379,7 +7121,7 @@
         <v>1069</v>
       </c>
       <c r="P94" t="s">
-        <v>1094</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -8405,7 +7147,7 @@
         <v>1070</v>
       </c>
       <c r="P95" t="s">
-        <v>1094</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -8440,7 +7182,7 @@
         <v>1071</v>
       </c>
       <c r="P96" t="s">
-        <v>1094</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -8472,7 +7214,7 @@
         <v>914</v>
       </c>
       <c r="P97" t="s">
-        <v>1094</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -8495,7 +7237,7 @@
         <v>766</v>
       </c>
       <c r="P98" t="s">
-        <v>1094</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -8524,7 +7266,7 @@
         <v>906</v>
       </c>
       <c r="P99" t="s">
-        <v>1094</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -8562,7 +7304,7 @@
         <v>1039</v>
       </c>
       <c r="P100" t="s">
-        <v>1094</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -8594,7 +7336,7 @@
         <v>911</v>
       </c>
       <c r="P101" t="s">
-        <v>1094</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -8614,7 +7356,7 @@
         <v>968</v>
       </c>
       <c r="P102" t="s">
-        <v>1095</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -8640,7 +7382,7 @@
         <v>644</v>
       </c>
       <c r="P103" t="s">
-        <v>1096</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -8663,7 +7405,7 @@
         <v>644</v>
       </c>
       <c r="P104" t="s">
-        <v>1096</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -8695,7 +7437,7 @@
         <v>1041</v>
       </c>
       <c r="P105" t="s">
-        <v>1096</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -8718,7 +7460,7 @@
         <v>525</v>
       </c>
       <c r="P106" t="s">
-        <v>1096</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -8753,7 +7495,7 @@
         <v>1042</v>
       </c>
       <c r="P107" t="s">
-        <v>1096</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -8782,7 +7524,7 @@
         <v>959</v>
       </c>
       <c r="P108" t="s">
-        <v>1096</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -8811,7 +7553,7 @@
         <v>971</v>
       </c>
       <c r="P109" t="s">
-        <v>1096</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -8837,7 +7579,7 @@
         <v>770</v>
       </c>
       <c r="P110" t="s">
-        <v>1096</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -8869,7 +7611,7 @@
         <v>1043</v>
       </c>
       <c r="P111" t="s">
-        <v>1096</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -8895,7 +7637,7 @@
         <v>973</v>
       </c>
       <c r="P112" t="s">
-        <v>1096</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -8918,7 +7660,7 @@
         <v>644</v>
       </c>
       <c r="P113" t="s">
-        <v>1096</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -8953,7 +7695,7 @@
         <v>915</v>
       </c>
       <c r="P114" t="s">
-        <v>1096</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -8979,7 +7721,7 @@
         <v>644</v>
       </c>
       <c r="P115" t="s">
-        <v>1096</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -9008,7 +7750,7 @@
         <v>865</v>
       </c>
       <c r="P116" t="s">
-        <v>1096</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -9034,7 +7776,7 @@
         <v>644</v>
       </c>
       <c r="P117" t="s">
-        <v>1096</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -9048,7 +7790,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>1097</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -9086,7 +7828,7 @@
         <v>1044</v>
       </c>
       <c r="P119" t="s">
-        <v>1097</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -9121,7 +7863,7 @@
         <v>866</v>
       </c>
       <c r="P120" t="s">
-        <v>1097</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -9159,7 +7901,7 @@
         <v>975</v>
       </c>
       <c r="P121" t="s">
-        <v>1097</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -9188,7 +7930,7 @@
         <v>866</v>
       </c>
       <c r="P122" t="s">
-        <v>1097</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -9217,7 +7959,7 @@
         <v>866</v>
       </c>
       <c r="P123" t="s">
-        <v>1097</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -9243,7 +7985,7 @@
         <v>699</v>
       </c>
       <c r="P124" t="s">
-        <v>1097</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -9281,7 +8023,7 @@
         <v>974</v>
       </c>
       <c r="P125" t="s">
-        <v>1097</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -9316,7 +8058,7 @@
         <v>1045</v>
       </c>
       <c r="P126" t="s">
-        <v>1097</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -9351,7 +8093,7 @@
         <v>867</v>
       </c>
       <c r="P127" t="s">
-        <v>1097</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -9371,7 +8113,7 @@
         <v>778</v>
       </c>
       <c r="P128" t="s">
-        <v>1097</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -9403,7 +8145,7 @@
         <v>1046</v>
       </c>
       <c r="P129" t="s">
-        <v>1097</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -9444,7 +8186,7 @@
         <v>1047</v>
       </c>
       <c r="P130" t="s">
-        <v>1097</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -9479,7 +8221,7 @@
         <v>974</v>
       </c>
       <c r="P131" t="s">
-        <v>1097</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -9514,7 +8256,7 @@
         <v>866</v>
       </c>
       <c r="P132" t="s">
-        <v>1097</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -9543,7 +8285,7 @@
         <v>866</v>
       </c>
       <c r="P133" t="s">
-        <v>1097</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -9572,7 +8314,7 @@
         <v>866</v>
       </c>
       <c r="P134" t="s">
-        <v>1097</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -9616,7 +8358,7 @@
         <v>1047</v>
       </c>
       <c r="P135" t="s">
-        <v>1097</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -9654,7 +8396,7 @@
         <v>974</v>
       </c>
       <c r="P136" t="s">
-        <v>1097</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -9683,7 +8425,7 @@
         <v>866</v>
       </c>
       <c r="P137" t="s">
-        <v>1097</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -9718,7 +8460,7 @@
         <v>978</v>
       </c>
       <c r="P138" t="s">
-        <v>1097</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -9750,7 +8492,7 @@
         <v>866</v>
       </c>
       <c r="P139" t="s">
-        <v>1097</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -9785,7 +8527,7 @@
         <v>979</v>
       </c>
       <c r="P140" t="s">
-        <v>1097</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -9820,7 +8562,7 @@
         <v>980</v>
       </c>
       <c r="P141" t="s">
-        <v>1097</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -9858,7 +8600,7 @@
         <v>1048</v>
       </c>
       <c r="P142" t="s">
-        <v>1097</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -9899,7 +8641,7 @@
         <v>1048</v>
       </c>
       <c r="P143" t="s">
-        <v>1097</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -9937,7 +8679,7 @@
         <v>974</v>
       </c>
       <c r="P144" t="s">
-        <v>1097</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -9975,7 +8717,7 @@
         <v>974</v>
       </c>
       <c r="P145" t="s">
-        <v>1097</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -10013,7 +8755,7 @@
         <v>1048</v>
       </c>
       <c r="P146" t="s">
-        <v>1097</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -10042,7 +8784,7 @@
         <v>983</v>
       </c>
       <c r="P147" t="s">
-        <v>1097</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -10083,7 +8825,7 @@
         <v>1049</v>
       </c>
       <c r="P148" t="s">
-        <v>1097</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -10118,7 +8860,7 @@
         <v>917</v>
       </c>
       <c r="P149" t="s">
-        <v>1097</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -10153,7 +8895,7 @@
         <v>985</v>
       </c>
       <c r="P150" t="s">
-        <v>1097</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -10191,7 +8933,7 @@
         <v>1050</v>
       </c>
       <c r="P151" t="s">
-        <v>1097</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -10220,7 +8962,7 @@
         <v>704</v>
       </c>
       <c r="P152" t="s">
-        <v>1098</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -10249,7 +8991,7 @@
         <v>794</v>
       </c>
       <c r="P153" t="s">
-        <v>1098</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -10272,7 +9014,7 @@
         <v>704</v>
       </c>
       <c r="P154" t="s">
-        <v>1098</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -10310,7 +9052,7 @@
         <v>1039</v>
       </c>
       <c r="P155" t="s">
-        <v>1098</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -10345,7 +9087,7 @@
         <v>974</v>
       </c>
       <c r="P156" t="s">
-        <v>1098</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -10374,7 +9116,7 @@
         <v>1039</v>
       </c>
       <c r="P157" t="s">
-        <v>1098</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -10403,7 +9145,7 @@
         <v>871</v>
       </c>
       <c r="P158" t="s">
-        <v>1098</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -10435,7 +9177,7 @@
         <v>1051</v>
       </c>
       <c r="P159" t="s">
-        <v>1098</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -10464,7 +9206,7 @@
         <v>796</v>
       </c>
       <c r="P160" t="s">
-        <v>1098</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -10493,7 +9235,7 @@
         <v>988</v>
       </c>
       <c r="P161" t="s">
-        <v>1098</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -10519,7 +9261,7 @@
         <v>704</v>
       </c>
       <c r="P162" t="s">
-        <v>1098</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -10551,7 +9293,7 @@
         <v>918</v>
       </c>
       <c r="P163" t="s">
-        <v>1099</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -10589,7 +9331,7 @@
         <v>1052</v>
       </c>
       <c r="P164" t="s">
-        <v>1099</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -10624,7 +9366,7 @@
         <v>918</v>
       </c>
       <c r="P165" t="s">
-        <v>1099</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -10659,7 +9401,7 @@
         <v>919</v>
       </c>
       <c r="P166" t="s">
-        <v>1099</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10700,7 +9442,7 @@
         <v>1052</v>
       </c>
       <c r="P167" t="s">
-        <v>1099</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10735,7 +9477,7 @@
         <v>918</v>
       </c>
       <c r="P168" t="s">
-        <v>1099</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10767,7 +9509,7 @@
         <v>918</v>
       </c>
       <c r="P169" t="s">
-        <v>1099</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10799,7 +9541,7 @@
         <v>918</v>
       </c>
       <c r="P170" t="s">
-        <v>1099</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -10831,7 +9573,7 @@
         <v>918</v>
       </c>
       <c r="P171" t="s">
-        <v>1099</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10845,7 +9587,7 @@
         <v>214</v>
       </c>
       <c r="P172" t="s">
-        <v>1100</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10871,7 +9613,7 @@
         <v>876</v>
       </c>
       <c r="P173" t="s">
-        <v>1100</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10897,7 +9639,7 @@
         <v>876</v>
       </c>
       <c r="P174" t="s">
-        <v>1100</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10917,7 +9659,7 @@
         <v>534</v>
       </c>
       <c r="P175" t="s">
-        <v>1101</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10946,7 +9688,7 @@
         <v>990</v>
       </c>
       <c r="P176" t="s">
-        <v>1101</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10972,7 +9714,7 @@
         <v>801</v>
       </c>
       <c r="P177" t="s">
-        <v>1101</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10995,7 +9737,7 @@
         <v>653</v>
       </c>
       <c r="P178" t="s">
-        <v>1101</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -11015,7 +9757,7 @@
         <v>534</v>
       </c>
       <c r="P179" t="s">
-        <v>1101</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -11044,7 +9786,7 @@
         <v>1053</v>
       </c>
       <c r="P180" t="s">
-        <v>1101</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -11064,7 +9806,7 @@
         <v>1072</v>
       </c>
       <c r="P181" t="s">
-        <v>1101</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -11078,7 +9820,7 @@
         <v>224</v>
       </c>
       <c r="P182" t="s">
-        <v>1101</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -11104,7 +9846,7 @@
         <v>992</v>
       </c>
       <c r="P183" t="s">
-        <v>1102</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -11130,7 +9872,7 @@
         <v>921</v>
       </c>
       <c r="P184" t="s">
-        <v>1102</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -11162,7 +9904,7 @@
         <v>1073</v>
       </c>
       <c r="P185" t="s">
-        <v>1102</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -11188,7 +9930,7 @@
         <v>1074</v>
       </c>
       <c r="P186" t="s">
-        <v>1102</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -11226,7 +9968,7 @@
         <v>1075</v>
       </c>
       <c r="P187" t="s">
-        <v>1103</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11264,7 +10006,7 @@
         <v>994</v>
       </c>
       <c r="P188" t="s">
-        <v>1103</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11290,7 +10032,7 @@
         <v>1075</v>
       </c>
       <c r="P189" t="s">
-        <v>1103</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11313,7 +10055,7 @@
         <v>1076</v>
       </c>
       <c r="P190" t="s">
-        <v>1103</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11339,7 +10081,7 @@
         <v>1075</v>
       </c>
       <c r="P191" t="s">
-        <v>1103</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11365,7 +10107,7 @@
         <v>1075</v>
       </c>
       <c r="P192" t="s">
-        <v>1103</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11391,7 +10133,7 @@
         <v>1074</v>
       </c>
       <c r="P193" t="s">
-        <v>1103</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11417,7 +10159,7 @@
         <v>1077</v>
       </c>
       <c r="P194" t="s">
-        <v>1103</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11446,7 +10188,7 @@
         <v>1077</v>
       </c>
       <c r="P195" t="s">
-        <v>1103</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11472,7 +10214,7 @@
         <v>707</v>
       </c>
       <c r="P196" t="s">
-        <v>1104</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11507,7 +10249,7 @@
         <v>924</v>
       </c>
       <c r="P197" t="s">
-        <v>1105</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11542,7 +10284,7 @@
         <v>924</v>
       </c>
       <c r="P198" t="s">
-        <v>1105</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11571,7 +10313,7 @@
         <v>924</v>
       </c>
       <c r="P199" t="s">
-        <v>1105</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11603,7 +10345,7 @@
         <v>925</v>
       </c>
       <c r="P200" t="s">
-        <v>1105</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11632,7 +10374,7 @@
         <v>996</v>
       </c>
       <c r="P201" t="s">
-        <v>1105</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11670,7 +10412,7 @@
         <v>1078</v>
       </c>
       <c r="P202" t="s">
-        <v>1105</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11705,7 +10447,7 @@
         <v>1079</v>
       </c>
       <c r="P203" t="s">
-        <v>1105</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11743,7 +10485,7 @@
         <v>1078</v>
       </c>
       <c r="P204" t="s">
-        <v>1105</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11778,7 +10520,7 @@
         <v>1080</v>
       </c>
       <c r="P205" t="s">
-        <v>1105</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11804,7 +10546,7 @@
         <v>708</v>
       </c>
       <c r="P206" t="s">
-        <v>1105</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11839,7 +10581,7 @@
         <v>1074</v>
       </c>
       <c r="P207" t="s">
-        <v>1105</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11877,7 +10619,7 @@
         <v>1081</v>
       </c>
       <c r="P208" t="s">
-        <v>1105</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11912,7 +10654,7 @@
         <v>1082</v>
       </c>
       <c r="P209" t="s">
-        <v>1105</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11950,7 +10692,7 @@
         <v>1081</v>
       </c>
       <c r="P210" t="s">
-        <v>1105</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11982,7 +10724,7 @@
         <v>997</v>
       </c>
       <c r="P211" t="s">
-        <v>1105</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12014,7 +10756,7 @@
         <v>924</v>
       </c>
       <c r="P212" t="s">
-        <v>1105</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12046,7 +10788,7 @@
         <v>998</v>
       </c>
       <c r="P213" t="s">
-        <v>1105</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12075,7 +10817,7 @@
         <v>884</v>
       </c>
       <c r="P214" t="s">
-        <v>1105</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12107,7 +10849,7 @@
         <v>1055</v>
       </c>
       <c r="P215" t="s">
-        <v>1105</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12136,7 +10878,7 @@
         <v>1000</v>
       </c>
       <c r="P216" t="s">
-        <v>1105</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12165,7 +10907,7 @@
         <v>1001</v>
       </c>
       <c r="P217" t="s">
-        <v>1105</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12200,7 +10942,7 @@
         <v>1002</v>
       </c>
       <c r="P218" t="s">
-        <v>1106</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12223,7 +10965,7 @@
         <v>603</v>
       </c>
       <c r="P219" t="s">
-        <v>1106</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12249,7 +10991,7 @@
         <v>1003</v>
       </c>
       <c r="P220" t="s">
-        <v>1106</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12284,7 +11026,7 @@
         <v>1004</v>
       </c>
       <c r="P221" t="s">
-        <v>1106</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12313,7 +11055,7 @@
         <v>926</v>
       </c>
       <c r="P222" t="s">
-        <v>1106</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12348,7 +11090,7 @@
         <v>926</v>
       </c>
       <c r="P223" t="s">
-        <v>1106</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12383,7 +11125,7 @@
         <v>1004</v>
       </c>
       <c r="P224" t="s">
-        <v>1106</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12406,7 +11148,7 @@
         <v>1005</v>
       </c>
       <c r="P225" t="s">
-        <v>1106</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12441,7 +11183,7 @@
         <v>1004</v>
       </c>
       <c r="P226" t="s">
-        <v>1106</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12476,7 +11218,7 @@
         <v>1004</v>
       </c>
       <c r="P227" t="s">
-        <v>1106</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12511,7 +11253,7 @@
         <v>1006</v>
       </c>
       <c r="P228" t="s">
-        <v>1106</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12546,7 +11288,7 @@
         <v>926</v>
       </c>
       <c r="P229" t="s">
-        <v>1106</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12581,7 +11323,7 @@
         <v>1007</v>
       </c>
       <c r="P230" t="s">
-        <v>1106</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12619,7 +11361,7 @@
         <v>1056</v>
       </c>
       <c r="P231" t="s">
-        <v>1106</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12645,7 +11387,7 @@
         <v>1005</v>
       </c>
       <c r="P232" t="s">
-        <v>1106</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12680,7 +11422,7 @@
         <v>929</v>
       </c>
       <c r="P233" t="s">
-        <v>1107</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12706,7 +11448,7 @@
         <v>711</v>
       </c>
       <c r="P234" t="s">
-        <v>1107</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -12732,7 +11474,7 @@
         <v>711</v>
       </c>
       <c r="P235" t="s">
-        <v>1107</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -12761,7 +11503,7 @@
         <v>929</v>
       </c>
       <c r="P236" t="s">
-        <v>1107</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -12787,7 +11529,7 @@
         <v>711</v>
       </c>
       <c r="P237" t="s">
-        <v>1107</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -12819,7 +11561,7 @@
         <v>1057</v>
       </c>
       <c r="P238" t="s">
-        <v>1108</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -12851,7 +11593,7 @@
         <v>1010</v>
       </c>
       <c r="P239" t="s">
-        <v>1108</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -12883,7 +11625,7 @@
         <v>1010</v>
       </c>
       <c r="P240" t="s">
-        <v>1108</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -12909,7 +11651,7 @@
         <v>712</v>
       </c>
       <c r="P241" t="s">
-        <v>1108</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -12947,7 +11689,7 @@
         <v>1058</v>
       </c>
       <c r="P242" t="s">
-        <v>1108</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -12985,7 +11727,7 @@
         <v>1058</v>
       </c>
       <c r="P243" t="s">
-        <v>1108</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13017,7 +11759,7 @@
         <v>931</v>
       </c>
       <c r="P244" t="s">
-        <v>1109</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13052,7 +11794,7 @@
         <v>1012</v>
       </c>
       <c r="P245" t="s">
-        <v>1109</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13090,7 +11832,7 @@
         <v>1013</v>
       </c>
       <c r="P246" t="s">
-        <v>1109</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13125,7 +11867,7 @@
         <v>1014</v>
       </c>
       <c r="P247" t="s">
-        <v>1109</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13157,7 +11899,7 @@
         <v>1015</v>
       </c>
       <c r="P248" t="s">
-        <v>1109</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13183,7 +11925,7 @@
         <v>1013</v>
       </c>
       <c r="P249" t="s">
-        <v>1109</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -13218,7 +11960,7 @@
         <v>1013</v>
       </c>
       <c r="P250" t="s">
-        <v>1109</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -13250,7 +11992,7 @@
         <v>1016</v>
       </c>
       <c r="P251" t="s">
-        <v>1109</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -13276,7 +12018,7 @@
         <v>931</v>
       </c>
       <c r="P252" t="s">
-        <v>1109</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -13311,7 +12053,7 @@
         <v>1059</v>
       </c>
       <c r="P253" t="s">
-        <v>1109</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -13343,7 +12085,7 @@
         <v>933</v>
       </c>
       <c r="P254" t="s">
-        <v>1109</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -13375,7 +12117,7 @@
         <v>931</v>
       </c>
       <c r="P255" t="s">
-        <v>1109</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -13407,7 +12149,7 @@
         <v>1018</v>
       </c>
       <c r="P256" t="s">
-        <v>1109</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -13445,7 +12187,7 @@
         <v>1019</v>
       </c>
       <c r="P257" t="s">
-        <v>1109</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -13465,7 +12207,7 @@
         <v>960</v>
       </c>
       <c r="P258" t="s">
-        <v>1110</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -13497,7 +12239,7 @@
         <v>934</v>
       </c>
       <c r="P259" t="s">
-        <v>1111</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -13529,7 +12271,7 @@
         <v>934</v>
       </c>
       <c r="P260" t="s">
-        <v>1111</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -13564,7 +12306,7 @@
         <v>934</v>
       </c>
       <c r="P261" t="s">
-        <v>1111</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -13593,7 +12335,7 @@
         <v>828</v>
       </c>
       <c r="P262" t="s">
-        <v>1112</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -13619,7 +12361,7 @@
         <v>718</v>
       </c>
       <c r="P263" t="s">
-        <v>1112</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -13648,7 +12390,7 @@
         <v>1083</v>
       </c>
       <c r="P264" t="s">
-        <v>1112</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -13671,7 +12413,7 @@
         <v>830</v>
       </c>
       <c r="P265" t="s">
-        <v>1112</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -13697,7 +12439,7 @@
         <v>1020</v>
       </c>
       <c r="P266" t="s">
-        <v>1112</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -13723,7 +12465,7 @@
         <v>718</v>
       </c>
       <c r="P267" t="s">
-        <v>1112</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -13743,7 +12485,7 @@
         <v>832</v>
       </c>
       <c r="P268" t="s">
-        <v>1112</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -13766,7 +12508,7 @@
         <v>718</v>
       </c>
       <c r="P269" t="s">
-        <v>1112</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -13795,7 +12537,7 @@
         <v>833</v>
       </c>
       <c r="P270" t="s">
-        <v>1112</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -13833,7 +12575,7 @@
         <v>1084</v>
       </c>
       <c r="P271" t="s">
-        <v>1113</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -13859,7 +12601,7 @@
         <v>611</v>
       </c>
       <c r="P272" t="s">
-        <v>1113</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -13885,7 +12627,7 @@
         <v>720</v>
       </c>
       <c r="P273" t="s">
-        <v>1114</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -13911,7 +12653,7 @@
         <v>720</v>
       </c>
       <c r="P274" t="s">
-        <v>1114</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -13937,7 +12679,7 @@
         <v>720</v>
       </c>
       <c r="P275" t="s">
-        <v>1114</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -13969,7 +12711,7 @@
         <v>1021</v>
       </c>
       <c r="P276" t="s">
-        <v>1114</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -13998,7 +12740,7 @@
         <v>1022</v>
       </c>
       <c r="P277" t="s">
-        <v>1114</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -14030,7 +12772,7 @@
         <v>935</v>
       </c>
       <c r="P278" t="s">
-        <v>1115</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -14059,7 +12801,7 @@
         <v>935</v>
       </c>
       <c r="P279" t="s">
-        <v>1115</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -14094,7 +12836,7 @@
         <v>935</v>
       </c>
       <c r="P280" t="s">
-        <v>1115</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -14129,7 +12871,7 @@
         <v>935</v>
       </c>
       <c r="P281" t="s">
-        <v>1115</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -14158,7 +12900,7 @@
         <v>722</v>
       </c>
       <c r="P282" t="s">
-        <v>1116</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -14190,7 +12932,7 @@
         <v>837</v>
       </c>
       <c r="P283" t="s">
-        <v>1116</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -14222,7 +12964,7 @@
         <v>722</v>
       </c>
       <c r="P284" t="s">
-        <v>1116</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -14248,7 +12990,7 @@
         <v>891</v>
       </c>
       <c r="P285" t="s">
-        <v>1117</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -14277,7 +13019,7 @@
         <v>1023</v>
       </c>
       <c r="P286" t="s">
-        <v>1117</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -14303,7 +13045,7 @@
         <v>1060</v>
       </c>
       <c r="P287" t="s">
-        <v>1117</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -14326,7 +13068,7 @@
         <v>1025</v>
       </c>
       <c r="P288" t="s">
-        <v>1117</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -14352,7 +13094,7 @@
         <v>1061</v>
       </c>
       <c r="P289" t="s">
-        <v>1117</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -14378,7 +13120,7 @@
         <v>1025</v>
       </c>
       <c r="P290" t="s">
-        <v>1117</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -14407,7 +13149,7 @@
         <v>892</v>
       </c>
       <c r="P291" t="s">
-        <v>1118</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -14439,7 +13181,7 @@
         <v>1027</v>
       </c>
       <c r="P292" t="s">
-        <v>1118</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -14480,7 +13222,7 @@
         <v>1027</v>
       </c>
       <c r="P293" t="s">
-        <v>1118</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -14512,7 +13254,7 @@
         <v>1028</v>
       </c>
       <c r="P294" t="s">
-        <v>1118</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -14547,7 +13289,7 @@
         <v>940</v>
       </c>
       <c r="P295" t="s">
-        <v>1118</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -14567,7 +13309,7 @@
         <v>1029</v>
       </c>
       <c r="P296" t="s">
-        <v>1118</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -14599,7 +13341,7 @@
         <v>1062</v>
       </c>
       <c r="P297" t="s">
-        <v>1118</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -14634,7 +13376,7 @@
         <v>1063</v>
       </c>
       <c r="P298" t="s">
-        <v>1118</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -14669,7 +13411,7 @@
         <v>940</v>
       </c>
       <c r="P299" t="s">
-        <v>1118</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -14701,7 +13443,7 @@
         <v>1027</v>
       </c>
       <c r="P300" t="s">
-        <v>1118</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -14736,7 +13478,7 @@
         <v>1027</v>
       </c>
       <c r="P301" t="s">
-        <v>1118</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -14768,7 +13510,7 @@
         <v>1032</v>
       </c>
       <c r="P302" t="s">
-        <v>1118</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -14794,7 +13536,7 @@
         <v>723</v>
       </c>
       <c r="P303" t="s">
-        <v>1118</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -14829,7 +13571,7 @@
         <v>940</v>
       </c>
       <c r="P304" t="s">
-        <v>1118</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -14855,7 +13597,7 @@
         <v>1033</v>
       </c>
       <c r="P305" t="s">
-        <v>1118</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -14887,7 +13629,7 @@
         <v>598</v>
       </c>
       <c r="P306" t="s">
-        <v>1118</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -14922,7 +13664,7 @@
         <v>1034</v>
       </c>
       <c r="P307" t="s">
-        <v>1118</v>
+        <v>1390</v>
       </c>
     </row>
   </sheetData>
